--- a/Document/3_Test Case/Test case 양식 맞춰서.xlsx
+++ b/Document/3_Test Case/Test case 양식 맞춰서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\서강대학교 4-2 (2019-2)\융합소프트웨어종합설계\@Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C8024-A581-436A-A853-107FACB9F923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54A5A1A-47D2-44E7-A75C-57AF53E4B163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="374">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -1462,13 +1462,16 @@
     <t>장소 적합성 확인 - 알칼리토 금속 추가시 해당 장소에 할로겐이 존재할 경우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Lab 생성</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1510,12 +1513,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1609,7 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1658,6 +1667,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1676,17 +1711,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1694,8 +1723,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1704,37 +1744,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2060,46 +2071,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="20" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="8" t="s">
         <v>179</v>
       </c>
@@ -2139,14 +2150,14 @@
       <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="21"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="2:20" ht="34.15" customHeight="1">
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="28" t="s">
         <v>308</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2195,7 +2206,7 @@
     <row r="5" spans="2:20" ht="34.15" customHeight="1">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="29" t="s">
         <v>314</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2222,7 +2233,7 @@
       <c r="L5" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -2235,7 +2246,7 @@
       <c r="Q5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="31" t="s">
         <v>316</v>
       </c>
       <c r="S5" s="17"/>
@@ -2271,7 +2282,7 @@
       <c r="L6" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -2320,7 +2331,7 @@
       <c r="L7" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -2369,7 +2380,7 @@
       <c r="L8" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -2418,7 +2429,7 @@
       <c r="L9" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -2467,7 +2478,7 @@
       <c r="L10" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -2516,7 +2527,7 @@
       <c r="L11" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -2565,7 +2576,7 @@
       <c r="L12" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -2614,7 +2625,7 @@
       <c r="L13" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -2663,7 +2674,7 @@
       <c r="L14" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M14" s="47" t="s">
+      <c r="M14" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -2685,13 +2696,13 @@
     <row r="15" spans="2:20">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="32" t="s">
         <v>347</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="32" t="s">
         <v>348</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -2706,18 +2717,18 @@
       <c r="L15" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="P15" s="49" t="s">
+      <c r="P15" s="32" t="s">
         <v>309</v>
       </c>
       <c r="Q15" s="8"/>
-      <c r="R15" s="50" t="s">
+      <c r="R15" s="33" t="s">
         <v>349</v>
       </c>
       <c r="S15" s="17"/>
@@ -2726,13 +2737,13 @@
     <row r="16" spans="2:20" ht="18.5" customHeight="1">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="32" t="s">
         <v>350</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="32" t="s">
         <v>351</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2747,18 +2758,18 @@
       <c r="L16" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M16" s="47" t="s">
+      <c r="M16" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="8"/>
-      <c r="P16" s="49" t="s">
+      <c r="P16" s="32" t="s">
         <v>309</v>
       </c>
       <c r="Q16" s="8"/>
-      <c r="R16" s="50" t="s">
+      <c r="R16" s="33" t="s">
         <v>349</v>
       </c>
       <c r="S16" s="17"/>
@@ -2767,13 +2778,13 @@
     <row r="17" spans="2:20">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="32" t="s">
         <v>352</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="32" t="s">
         <v>353</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -2788,18 +2799,18 @@
       <c r="L17" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="8"/>
-      <c r="P17" s="49" t="s">
+      <c r="P17" s="32" t="s">
         <v>309</v>
       </c>
       <c r="Q17" s="8"/>
-      <c r="R17" s="50" t="s">
+      <c r="R17" s="33" t="s">
         <v>354</v>
       </c>
       <c r="S17" s="17"/>
@@ -2808,13 +2819,13 @@
     <row r="18" spans="2:20">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="32" t="s">
         <v>355</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="32" t="s">
         <v>356</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -2829,18 +2840,18 @@
       <c r="L18" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="8"/>
-      <c r="P18" s="49" t="s">
+      <c r="P18" s="32" t="s">
         <v>309</v>
       </c>
       <c r="Q18" s="8"/>
-      <c r="R18" s="50" t="s">
+      <c r="R18" s="33" t="s">
         <v>357</v>
       </c>
       <c r="S18" s="17"/>
@@ -2849,13 +2860,13 @@
     <row r="19" spans="2:20">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="32" t="s">
         <v>358</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="32" t="s">
         <v>359</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -2870,18 +2881,18 @@
       <c r="L19" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O19" s="8"/>
-      <c r="P19" s="49" t="s">
+      <c r="P19" s="32" t="s">
         <v>309</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="50" t="s">
+      <c r="R19" s="33" t="s">
         <v>360</v>
       </c>
       <c r="S19" s="17"/>
@@ -2890,13 +2901,13 @@
     <row r="20" spans="2:20">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="32" t="s">
         <v>361</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="32" t="s">
         <v>362</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -2911,18 +2922,18 @@
       <c r="L20" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="8"/>
-      <c r="P20" s="49" t="s">
+      <c r="P20" s="32" t="s">
         <v>309</v>
       </c>
       <c r="Q20" s="8"/>
-      <c r="R20" s="50" t="s">
+      <c r="R20" s="33" t="s">
         <v>360</v>
       </c>
       <c r="S20" s="17"/>
@@ -2931,13 +2942,13 @@
     <row r="21" spans="2:20">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="32" t="s">
         <v>363</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="32" t="s">
         <v>364</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -2952,14 +2963,14 @@
       <c r="L21" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="32" t="s">
         <v>329</v>
       </c>
       <c r="Q21" s="8"/>
@@ -2972,13 +2983,13 @@
     <row r="22" spans="2:20">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="32" t="s">
         <v>366</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="32" t="s">
         <v>364</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -2993,18 +3004,18 @@
       <c r="L22" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O22" s="8"/>
-      <c r="P22" s="49" t="s">
+      <c r="P22" s="32" t="s">
         <v>329</v>
       </c>
       <c r="Q22" s="8"/>
-      <c r="R22" s="50" t="s">
+      <c r="R22" s="33" t="s">
         <v>367</v>
       </c>
       <c r="S22" s="17"/>
@@ -3013,13 +3024,13 @@
     <row r="23" spans="2:20">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="32" t="s">
         <v>368</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="32" t="s">
         <v>348</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -3034,14 +3045,14 @@
       <c r="L23" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M23" s="47" t="s">
+      <c r="M23" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O23" s="8"/>
-      <c r="P23" s="49" t="s">
+      <c r="P23" s="32" t="s">
         <v>329</v>
       </c>
       <c r="Q23" s="8"/>
@@ -3054,13 +3065,13 @@
     <row r="24" spans="2:20">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="32" t="s">
         <v>366</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="32" t="s">
         <v>348</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -3075,18 +3086,18 @@
       <c r="L24" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M24" s="47" t="s">
+      <c r="M24" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="8"/>
-      <c r="P24" s="49" t="s">
+      <c r="P24" s="32" t="s">
         <v>329</v>
       </c>
       <c r="Q24" s="8"/>
-      <c r="R24" s="50" t="s">
+      <c r="R24" s="33" t="s">
         <v>370</v>
       </c>
       <c r="S24" s="17"/>
@@ -3122,7 +3133,7 @@
       <c r="L25" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M25" s="47" t="s">
+      <c r="M25" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -3173,7 +3184,7 @@
       <c r="L26" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M26" s="47" t="s">
+      <c r="M26" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N26" s="6" t="s">
@@ -3224,7 +3235,7 @@
       <c r="L27" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="47" t="s">
+      <c r="M27" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N27" s="6" t="s">
@@ -3275,7 +3286,7 @@
       <c r="L28" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M28" s="47" t="s">
+      <c r="M28" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N28" s="6" t="s">
@@ -3326,7 +3337,7 @@
       <c r="L29" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M29" s="47" t="s">
+      <c r="M29" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N29" s="6" t="s">
@@ -3377,7 +3388,7 @@
       <c r="L30" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M30" s="47" t="s">
+      <c r="M30" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N30" s="6" t="s">
@@ -3428,7 +3439,7 @@
       <c r="L31" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M31" s="47" t="s">
+      <c r="M31" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N31" s="6" t="s">
@@ -3479,7 +3490,7 @@
       <c r="L32" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M32" s="47" t="s">
+      <c r="M32" s="30" t="s">
         <v>312</v>
       </c>
       <c r="N32" s="6" t="s">
@@ -3542,54 +3553,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="30" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="31" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="8" t="s">
         <v>107</v>
       </c>
@@ -3617,20 +3628,20 @@
       <c r="P3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="21"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="35"/>
     </row>
     <row r="4" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="6" t="s">
         <v>143</v>
       </c>
@@ -3668,15 +3679,15 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
         <v>144</v>
       </c>
@@ -3714,15 +3725,15 @@
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
         <v>155</v>
       </c>
@@ -3760,15 +3771,15 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
         <v>156</v>
       </c>
@@ -3806,15 +3817,15 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
         <v>147</v>
       </c>
@@ -3852,15 +3863,15 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
         <v>148</v>
       </c>
@@ -3898,17 +3909,17 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="6" t="s">
         <v>145</v>
       </c>
@@ -3946,15 +3957,15 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="6" t="s">
         <v>146</v>
       </c>
@@ -3992,15 +4003,15 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="6" t="s">
         <v>149</v>
       </c>
@@ -4039,17 +4050,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -4061,7 +4072,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:V22"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
@@ -4086,57 +4099,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="30" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="31" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -4173,20 +4186,20 @@
       <c r="S3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
+      <c r="D4" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
@@ -4214,10 +4227,10 @@
       <c r="O4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="27">
         <v>1234</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="27">
         <v>1234</v>
       </c>
       <c r="R4" s="10" t="s">
@@ -4229,21 +4242,21 @@
       <c r="T4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="38"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
@@ -4271,10 +4284,10 @@
       <c r="O5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="27">
         <v>1234</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="27">
         <v>1234</v>
       </c>
       <c r="R5" s="10" t="s">
@@ -4286,21 +4299,21 @@
       <c r="T5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="38"/>
+      <c r="U5" s="23"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
@@ -4328,10 +4341,10 @@
       <c r="O6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="27">
         <v>1234</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="27">
         <v>9876</v>
       </c>
       <c r="R6" s="10" t="s">
@@ -4343,19 +4356,19 @@
       <c r="T6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="38"/>
+      <c r="U6" s="23"/>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
@@ -4383,10 +4396,10 @@
       <c r="O7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="27">
         <v>1234</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="27">
         <v>1234</v>
       </c>
       <c r="R7" s="10" t="s">
@@ -4398,21 +4411,21 @@
       <c r="T7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="39"/>
+      <c r="U7" s="24"/>
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
         <v>169</v>
       </c>
@@ -4424,24 +4437,24 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="39"/>
+      <c r="U8" s="24"/>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
@@ -4463,7 +4476,7 @@
       <c r="M9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="27" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="10" t="s">
@@ -4484,21 +4497,21 @@
       <c r="T9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="38"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
@@ -4520,7 +4533,7 @@
       <c r="M10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="27" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="10" t="s">
@@ -4541,21 +4554,21 @@
       <c r="T10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="38"/>
+      <c r="U10" s="23"/>
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
@@ -4577,7 +4590,7 @@
       <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="27" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="10" t="s">
@@ -4598,19 +4611,19 @@
       <c r="T11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="38"/>
+      <c r="U11" s="23"/>
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
@@ -4632,7 +4645,7 @@
       <c r="M12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="21" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -4653,21 +4666,21 @@
       <c r="T12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="38"/>
+      <c r="U12" s="23"/>
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="6" t="s">
         <v>58</v>
       </c>
@@ -4710,19 +4723,19 @@
       <c r="T13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="38"/>
+      <c r="U13" s="23"/>
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
@@ -4750,7 +4763,7 @@
       <c r="O14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="27">
         <v>1234</v>
       </c>
       <c r="Q14" s="10" t="s">
@@ -4765,21 +4778,21 @@
       <c r="T14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="38"/>
+      <c r="U14" s="23"/>
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="6" t="s">
         <v>41</v>
       </c>
@@ -4822,21 +4835,21 @@
       <c r="T15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="38"/>
+      <c r="U15" s="23"/>
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B16" s="36"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
@@ -4864,7 +4877,7 @@
       <c r="O16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="27">
         <v>9876</v>
       </c>
       <c r="Q16" s="10" t="s">
@@ -4879,19 +4892,19 @@
       <c r="T16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="U16" s="38"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="6" t="s">
         <v>44</v>
       </c>
@@ -4919,7 +4932,7 @@
       <c r="O17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="27">
         <v>1234</v>
       </c>
       <c r="Q17" s="10" t="s">
@@ -4934,21 +4947,21 @@
       <c r="T17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="39"/>
+      <c r="U17" s="24"/>
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B18" s="36"/>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="6" t="s">
         <v>169</v>
       </c>
@@ -4960,24 +4973,24 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="39"/>
+      <c r="U18" s="24"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="34" customHeight="1">
-      <c r="B19" s="36"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="6" t="s">
         <v>52</v>
       </c>
@@ -5020,19 +5033,19 @@
       <c r="T19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U19" s="39"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="6" t="s">
         <v>53</v>
       </c>
@@ -5075,19 +5088,19 @@
       <c r="T20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="U20" s="39"/>
+      <c r="U20" s="24"/>
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B21" s="36"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="6" t="s">
         <v>51</v>
       </c>
@@ -5130,21 +5143,21 @@
       <c r="T21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="39"/>
+      <c r="U21" s="24"/>
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B22" s="36"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="6" t="s">
         <v>61</v>
       </c>
@@ -5187,22 +5200,22 @@
       <c r="T22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="39"/>
+      <c r="U22" s="24"/>
       <c r="V22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5239,83 +5252,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
     </row>
     <row r="2" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="31" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -5352,21 +5365,21 @@
       <c r="S3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="6" t="s">
         <v>62</v>
       </c>
@@ -5409,22 +5422,22 @@
       <c r="T4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="U4" s="38"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
         <v>63</v>
       </c>
@@ -5467,20 +5480,20 @@
       <c r="T5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="38"/>
+      <c r="U5" s="23"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
         <v>64</v>
       </c>
@@ -5523,20 +5536,20 @@
       <c r="T6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="39"/>
+      <c r="U6" s="24"/>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
         <v>69</v>
       </c>
@@ -5579,20 +5592,20 @@
       <c r="T7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="U7" s="39"/>
+      <c r="U7" s="24"/>
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
         <v>70</v>
       </c>
@@ -5635,20 +5648,20 @@
       <c r="T8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="39"/>
+      <c r="U8" s="24"/>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
         <v>71</v>
       </c>
@@ -5670,7 +5683,7 @@
       <c r="M9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="26">
         <v>43800</v>
       </c>
       <c r="O9" s="10" t="s">
@@ -5691,22 +5704,22 @@
       <c r="T9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="39"/>
+      <c r="U9" s="24"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="6" t="s">
         <v>73</v>
       </c>
@@ -5728,7 +5741,7 @@
       <c r="M10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="26">
         <v>43794</v>
       </c>
       <c r="O10" s="10" t="s">
@@ -5749,22 +5762,22 @@
       <c r="T10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="39"/>
+      <c r="U10" s="24"/>
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="6" t="s">
         <v>72</v>
       </c>
@@ -5786,7 +5799,7 @@
       <c r="M11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="26">
         <v>43800</v>
       </c>
       <c r="O11" s="10" t="s">
@@ -5807,20 +5820,20 @@
       <c r="T11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="39"/>
+      <c r="U11" s="24"/>
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="6" t="s">
         <v>170</v>
       </c>
@@ -5842,7 +5855,7 @@
       <c r="M12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="26">
         <v>43800</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -5863,20 +5876,20 @@
       <c r="T12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="U12" s="39"/>
+      <c r="U12" s="24"/>
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="6" t="s">
         <v>171</v>
       </c>
@@ -5886,27 +5899,27 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="42"/>
+      <c r="N13" s="26"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="39"/>
+      <c r="U13" s="24"/>
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="6" t="s">
         <v>74</v>
       </c>
@@ -5928,7 +5941,7 @@
       <c r="M14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="26">
         <v>43800</v>
       </c>
       <c r="O14" s="10" t="s">
@@ -5949,22 +5962,22 @@
       <c r="T14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="39"/>
+      <c r="U14" s="24"/>
       <c r="V14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5976,7 +5989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:S51"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
@@ -5999,54 +6014,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="30" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="31" t="s">
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="7" t="s">
         <v>107</v>
       </c>
@@ -6074,20 +6089,20 @@
       <c r="P3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
     </row>
     <row r="4" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="6" t="s">
         <v>211</v>
       </c>
@@ -6121,19 +6136,19 @@
       <c r="Q4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="38"/>
+      <c r="R4" s="23"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
         <v>212</v>
       </c>
@@ -6167,19 +6182,19 @@
       <c r="Q5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="R5" s="39"/>
+      <c r="R5" s="24"/>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
         <v>213</v>
       </c>
@@ -6213,21 +6228,21 @@
       <c r="Q6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="39"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
         <v>214</v>
       </c>
@@ -6261,19 +6276,19 @@
       <c r="Q7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="39"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
         <v>215</v>
       </c>
@@ -6307,19 +6322,19 @@
       <c r="Q8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="39"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
         <v>216</v>
       </c>
@@ -6353,19 +6368,19 @@
       <c r="Q9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="39"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="6" t="s">
         <v>217</v>
       </c>
@@ -6399,19 +6414,19 @@
       <c r="Q10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="39"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="6" t="s">
         <v>218</v>
       </c>
@@ -6445,19 +6460,19 @@
       <c r="Q11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="R11" s="39"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="6" t="s">
         <v>219</v>
       </c>
@@ -6491,21 +6506,21 @@
       <c r="Q12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="39"/>
+      <c r="R12" s="24"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="2:19" ht="34" customHeight="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="6" t="s">
         <v>214</v>
       </c>
@@ -6539,19 +6554,19 @@
       <c r="Q13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="R13" s="39"/>
+      <c r="R13" s="24"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" ht="34" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="6" t="s">
         <v>215</v>
       </c>
@@ -6585,19 +6600,19 @@
       <c r="Q14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="R14" s="39"/>
+      <c r="R14" s="24"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" ht="34" customHeight="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="6" t="s">
         <v>216</v>
       </c>
@@ -6631,19 +6646,19 @@
       <c r="Q15" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="R15" s="39"/>
+      <c r="R15" s="24"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B16" s="36"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="6" t="s">
         <v>220</v>
       </c>
@@ -6677,19 +6692,19 @@
       <c r="Q16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="39"/>
+      <c r="R16" s="24"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="6" t="s">
         <v>235</v>
       </c>
@@ -6723,19 +6738,19 @@
       <c r="Q17" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="R17" s="38"/>
+      <c r="R17" s="23"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B18" s="36"/>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="6" t="s">
         <v>236</v>
       </c>
@@ -6769,19 +6784,19 @@
       <c r="Q18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="38"/>
+      <c r="R18" s="23"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B19" s="36"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="6" t="s">
         <v>234</v>
       </c>
@@ -6815,19 +6830,19 @@
       <c r="Q19" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="R19" s="38"/>
+      <c r="R19" s="23"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="6" t="s">
         <v>237</v>
       </c>
@@ -6861,19 +6876,19 @@
       <c r="Q20" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="R20" s="38"/>
+      <c r="R20" s="23"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B21" s="36"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="6" t="s">
         <v>238</v>
       </c>
@@ -6907,19 +6922,19 @@
       <c r="Q21" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="R21" s="38"/>
+      <c r="R21" s="23"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B22" s="36"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="6" t="s">
         <v>239</v>
       </c>
@@ -6953,19 +6968,19 @@
       <c r="Q22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="38"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="36"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="6" t="s">
         <v>240</v>
       </c>
@@ -6999,19 +7014,19 @@
       <c r="Q23" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="R23" s="38"/>
+      <c r="R23" s="23"/>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B24" s="36"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="6" t="s">
         <v>221</v>
       </c>
@@ -7045,19 +7060,19 @@
       <c r="Q24" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="R24" s="38"/>
+      <c r="R24" s="23"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="6" t="s">
         <v>241</v>
       </c>
@@ -7091,19 +7106,19 @@
       <c r="Q25" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="R25" s="38"/>
+      <c r="R25" s="23"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B26" s="36"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="6" t="s">
         <v>242</v>
       </c>
@@ -7137,19 +7152,19 @@
       <c r="Q26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="38"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B27" s="36"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="6" t="s">
         <v>243</v>
       </c>
@@ -7183,19 +7198,19 @@
       <c r="Q27" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="R27" s="38"/>
+      <c r="R27" s="23"/>
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B28" s="36"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="6" t="s">
         <v>222</v>
       </c>
@@ -7229,19 +7244,19 @@
       <c r="Q28" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="R28" s="38"/>
+      <c r="R28" s="23"/>
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="32" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="6" t="s">
         <v>244</v>
       </c>
@@ -7275,19 +7290,19 @@
       <c r="Q29" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="R29" s="38"/>
+      <c r="R29" s="23"/>
       <c r="S29" s="3"/>
     </row>
     <row r="30" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B30" s="36"/>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="6" t="s">
         <v>245</v>
       </c>
@@ -7321,19 +7336,19 @@
       <c r="Q30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="38"/>
+      <c r="R30" s="23"/>
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B31" s="36"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="36"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="6" t="s">
         <v>246</v>
       </c>
@@ -7367,19 +7382,19 @@
       <c r="Q31" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="R31" s="38"/>
+      <c r="R31" s="23"/>
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B32" s="36"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="36"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="6" t="s">
         <v>223</v>
       </c>
@@ -7413,19 +7428,19 @@
       <c r="Q32" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="R32" s="38"/>
+      <c r="R32" s="23"/>
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B33" s="36"/>
-      <c r="C33" s="32" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="36"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="6" t="s">
         <v>247</v>
       </c>
@@ -7459,19 +7474,19 @@
       <c r="Q33" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="R33" s="38"/>
+      <c r="R33" s="23"/>
       <c r="S33" s="3"/>
     </row>
     <row r="34" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B34" s="36"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="6" t="s">
         <v>248</v>
       </c>
@@ -7505,19 +7520,19 @@
       <c r="Q34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="38"/>
+      <c r="R34" s="23"/>
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B35" s="36"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="6" t="s">
         <v>249</v>
       </c>
@@ -7551,19 +7566,19 @@
       <c r="Q35" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="R35" s="38"/>
+      <c r="R35" s="23"/>
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B36" s="36"/>
-      <c r="C36" s="32" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="6" t="s">
         <v>224</v>
       </c>
@@ -7597,19 +7612,19 @@
       <c r="Q36" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="R36" s="38"/>
+      <c r="R36" s="23"/>
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B37" s="36"/>
-      <c r="C37" s="32" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="6" t="s">
         <v>250</v>
       </c>
@@ -7643,19 +7658,19 @@
       <c r="Q37" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="R37" s="38"/>
+      <c r="R37" s="23"/>
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B38" s="36"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="36"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="6" t="s">
         <v>251</v>
       </c>
@@ -7689,19 +7704,19 @@
       <c r="Q38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="38"/>
+      <c r="R38" s="23"/>
       <c r="S38" s="3"/>
     </row>
     <row r="39" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B39" s="36"/>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="36"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="6" t="s">
         <v>252</v>
       </c>
@@ -7735,19 +7750,19 @@
       <c r="Q39" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="R39" s="38"/>
+      <c r="R39" s="23"/>
       <c r="S39" s="3"/>
     </row>
     <row r="40" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B40" s="36"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="36"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="6" t="s">
         <v>225</v>
       </c>
@@ -7781,19 +7796,19 @@
       <c r="Q40" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="R40" s="38"/>
+      <c r="R40" s="23"/>
       <c r="S40" s="3"/>
     </row>
     <row r="41" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B41" s="36"/>
-      <c r="C41" s="32" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="36"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="6" t="s">
         <v>253</v>
       </c>
@@ -7827,19 +7842,19 @@
       <c r="Q41" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="R41" s="38"/>
+      <c r="R41" s="23"/>
       <c r="S41" s="3"/>
     </row>
     <row r="42" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B42" s="36"/>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="36"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="6" t="s">
         <v>254</v>
       </c>
@@ -7873,19 +7888,19 @@
       <c r="Q42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="38"/>
+      <c r="R42" s="23"/>
       <c r="S42" s="3"/>
     </row>
     <row r="43" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B43" s="36"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="36"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="6" t="s">
         <v>255</v>
       </c>
@@ -7919,19 +7934,19 @@
       <c r="Q43" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="R43" s="38"/>
+      <c r="R43" s="23"/>
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B44" s="36"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="36"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="6" t="s">
         <v>226</v>
       </c>
@@ -7965,19 +7980,19 @@
       <c r="Q44" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="R44" s="38"/>
+      <c r="R44" s="23"/>
       <c r="S44" s="3"/>
     </row>
     <row r="45" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B45" s="36"/>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="36"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="6" t="s">
         <v>257</v>
       </c>
@@ -8011,19 +8026,19 @@
       <c r="Q45" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="R45" s="38"/>
+      <c r="R45" s="23"/>
       <c r="S45" s="3"/>
     </row>
     <row r="46" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B46" s="36"/>
-      <c r="C46" s="32" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="36"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="6" t="s">
         <v>256</v>
       </c>
@@ -8057,19 +8072,19 @@
       <c r="Q46" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="38"/>
+      <c r="R46" s="23"/>
       <c r="S46" s="3"/>
     </row>
     <row r="47" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B47" s="36"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="36"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="6" t="s">
         <v>258</v>
       </c>
@@ -8103,19 +8118,19 @@
       <c r="Q47" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="R47" s="38"/>
+      <c r="R47" s="23"/>
       <c r="S47" s="3"/>
     </row>
     <row r="48" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B48" s="36"/>
-      <c r="C48" s="32" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="36"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="6" t="s">
         <v>227</v>
       </c>
@@ -8149,21 +8164,21 @@
       <c r="Q48" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="R48" s="38"/>
+      <c r="R48" s="23"/>
       <c r="S48" s="3"/>
     </row>
     <row r="49" spans="2:19" ht="34" customHeight="1">
-      <c r="B49" s="36"/>
-      <c r="C49" s="32" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="F49" s="36"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="6" t="s">
         <v>214</v>
       </c>
@@ -8197,19 +8212,19 @@
       <c r="Q49" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="R49" s="39"/>
+      <c r="R49" s="24"/>
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="2:19" ht="34" customHeight="1">
-      <c r="B50" s="36"/>
-      <c r="C50" s="32" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="36"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="6" t="s">
         <v>215</v>
       </c>
@@ -8243,19 +8258,19 @@
       <c r="Q50" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="R50" s="39"/>
+      <c r="R50" s="24"/>
       <c r="S50" s="3"/>
     </row>
     <row r="51" spans="2:19" ht="34" customHeight="1">
-      <c r="B51" s="36"/>
-      <c r="C51" s="32" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="36"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="6" t="s">
         <v>228</v>
       </c>
@@ -8289,7 +8304,7 @@
       <c r="Q51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="39"/>
+      <c r="R51" s="24"/>
       <c r="S51" s="3"/>
     </row>
   </sheetData>

--- a/Document/3_Test Case/Test case 양식 맞춰서.xlsx
+++ b/Document/3_Test Case/Test case 양식 맞춰서.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\서강대학교 4-2 (2019-2)\융합소프트웨어종합설계\@Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C8024-A581-436A-A853-107FACB9F923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B035FE-4F4F-C146-A525-6BB0B97C1CC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1 일부" sheetId="14" r:id="rId1"/>
-    <sheet name="Test Case_Result_UC2" sheetId="13" r:id="rId2"/>
-    <sheet name="Test Case_Result_UC3" sheetId="7" r:id="rId3"/>
-    <sheet name="Test Case_Result_UC4" sheetId="9" r:id="rId4"/>
-    <sheet name="Test Case_Result_UC5" sheetId="12" r:id="rId5"/>
+    <sheet name="Test Case_Result_UC1" sheetId="15" r:id="rId2"/>
+    <sheet name="Test Case_Result_UC2" sheetId="13" r:id="rId3"/>
+    <sheet name="Test Case_Result_UC3" sheetId="7" r:id="rId4"/>
+    <sheet name="Test Case_Result_UC4" sheetId="9" r:id="rId5"/>
+    <sheet name="Test Case_Result_UC5" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="384">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -743,26 +744,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>추가할 약품 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해당 장소에 존재하는 약품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약품 별칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약품 별칭 중복확인 버튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장소수정 버튼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1245,18 +1230,6 @@
   </si>
   <si>
     <t>AF1. 입력된 사용량이 남아있는 양을 초과한 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장소에 존재하는 약품 별칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약품 용량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약품 유효기간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1461,6 +1434,60 @@
   <si>
     <t>장소 적합성 확인 - 알칼리토 금속 추가시 해당 장소에 할로겐이 존재할 경우</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+  </si>
+  <si>
+    <t>해당 장소에 존재하는 약품</t>
+  </si>
+  <si>
+    <t>해당 장소에 존재하는 약품 별칭</t>
+  </si>
+  <si>
+    <t>추가할 약품 이름</t>
+  </si>
+  <si>
+    <t>검색 버튼</t>
+  </si>
+  <si>
+    <t>약품 별칭</t>
+  </si>
+  <si>
+    <t>약품 별칭 중복확인 버튼</t>
+  </si>
+  <si>
+    <t>약품 용량</t>
+  </si>
+  <si>
+    <t>약품 유효기간</t>
+  </si>
+  <si>
+    <t>장소 수정 버튼</t>
+  </si>
+  <si>
+    <t>my Lab 약품 보관 장소 관리</t>
+  </si>
+  <si>
+    <t>약품 추가 및 장소 선택</t>
+  </si>
+  <si>
+    <t>약품이 보관될 장소 추천</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인</t>
+  </si>
+  <si>
+    <t>약품 이름을 잘못 입력한 경우</t>
+  </si>
+  <si>
+    <t>약품 별칭이 이미 존재하는 경우</t>
+  </si>
+  <si>
+    <t>약품 별칭을 입력 하지 않는 경우</t>
+  </si>
+  <si>
+    <t>추천할 장소가 없는 경우</t>
   </si>
 </sst>
 </file>
@@ -1468,9 +1495,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1508,6 +1535,11 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="함초롬바탕"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1609,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1658,6 +1690,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1676,17 +1737,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1694,8 +1749,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1704,40 +1770,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{987B8334-A4AC-46AB-BB4B-C8D7EA545DEC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2042,121 +2083,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F218289-417F-4BB3-B14A-D058BACC0645}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:R32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.83203125" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08203125" customWidth="1"/>
+    <col min="15" max="15" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="18" max="18" width="114" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="20" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+    <row r="3" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="21"/>
-    </row>
-    <row r="4" spans="2:20" ht="34.15" customHeight="1">
+      <c r="R3" s="36"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.25" customHeight="1">
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="45" t="s">
-        <v>308</v>
+      <c r="D4" s="29" t="s">
+        <v>301</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>150</v>
@@ -2165,78 +2209,78 @@
         <v>18</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="34.15" customHeight="1">
+    <row r="5" spans="2:20" ht="34.25" customHeight="1">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="46" t="s">
-        <v>314</v>
+      <c r="D5" s="30" t="s">
+        <v>307</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="48" t="s">
-        <v>316</v>
+      <c r="R5" s="32" t="s">
+        <v>309</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="18"/>
@@ -2245,16 +2289,16 @@
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>150</v>
@@ -2263,29 +2307,29 @@
         <v>18</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="18"/>
@@ -2294,16 +2338,16 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>150</v>
@@ -2312,29 +2356,29 @@
         <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M7" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="18"/>
@@ -2343,16 +2387,16 @@
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>150</v>
@@ -2361,29 +2405,29 @@
         <v>18</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="18"/>
@@ -2392,16 +2436,16 @@
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>150</v>
@@ -2410,16 +2454,16 @@
         <v>18</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M9" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>17</v>
@@ -2432,7 +2476,7 @@
         <v>17</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="18"/>
@@ -2441,16 +2485,16 @@
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>150</v>
@@ -2459,16 +2503,16 @@
         <v>18</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M10" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>17</v>
@@ -2481,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="18"/>
@@ -2490,16 +2534,16 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>150</v>
@@ -2508,191 +2552,191 @@
         <v>18</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M11" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" ht="18">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" ht="18">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="6" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="K13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" ht="18">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" ht="18">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="49" t="s">
-        <v>347</v>
+      <c r="D15" s="33" t="s">
+        <v>340</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="49" t="s">
-        <v>348</v>
+      <c r="H15" s="33" t="s">
+        <v>341</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>18</v>
@@ -2704,21 +2748,21 @@
         <v>17</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M15" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="P15" s="49" t="s">
-        <v>309</v>
+      <c r="P15" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="Q15" s="8"/>
-      <c r="R15" s="50" t="s">
-        <v>349</v>
+      <c r="R15" s="34" t="s">
+        <v>342</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="18"/>
@@ -2726,14 +2770,14 @@
     <row r="16" spans="2:20" ht="18.5" customHeight="1">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="49" t="s">
-        <v>350</v>
+      <c r="D16" s="33" t="s">
+        <v>343</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="49" t="s">
-        <v>351</v>
+      <c r="H16" s="33" t="s">
+        <v>344</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>18</v>
@@ -2745,36 +2789,36 @@
         <v>17</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M16" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="8"/>
-      <c r="P16" s="49" t="s">
-        <v>309</v>
+      <c r="P16" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="Q16" s="8"/>
-      <c r="R16" s="50" t="s">
-        <v>349</v>
+      <c r="R16" s="34" t="s">
+        <v>342</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" ht="18">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="49" t="s">
-        <v>352</v>
+      <c r="D17" s="33" t="s">
+        <v>345</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="49" t="s">
-        <v>353</v>
+      <c r="H17" s="33" t="s">
+        <v>346</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>18</v>
@@ -2786,36 +2830,36 @@
         <v>17</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M17" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="8"/>
-      <c r="P17" s="49" t="s">
-        <v>309</v>
+      <c r="P17" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="Q17" s="8"/>
-      <c r="R17" s="50" t="s">
-        <v>354</v>
+      <c r="R17" s="34" t="s">
+        <v>347</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" ht="18">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="49" t="s">
-        <v>355</v>
+      <c r="D18" s="33" t="s">
+        <v>348</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="49" t="s">
-        <v>356</v>
+      <c r="H18" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>18</v>
@@ -2827,36 +2871,36 @@
         <v>17</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M18" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="8"/>
-      <c r="P18" s="49" t="s">
-        <v>309</v>
+      <c r="P18" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="Q18" s="8"/>
-      <c r="R18" s="50" t="s">
-        <v>357</v>
+      <c r="R18" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" ht="18">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="49" t="s">
-        <v>358</v>
+      <c r="D19" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="49" t="s">
-        <v>359</v>
+      <c r="H19" s="33" t="s">
+        <v>352</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>18</v>
@@ -2868,36 +2912,36 @@
         <v>17</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M19" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O19" s="8"/>
-      <c r="P19" s="49" t="s">
-        <v>309</v>
+      <c r="P19" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="50" t="s">
-        <v>360</v>
+      <c r="R19" s="34" t="s">
+        <v>353</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" ht="18">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="49" t="s">
-        <v>361</v>
+      <c r="D20" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="49" t="s">
-        <v>362</v>
+      <c r="H20" s="33" t="s">
+        <v>355</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>18</v>
@@ -2909,36 +2953,36 @@
         <v>17</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M20" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="8"/>
-      <c r="P20" s="49" t="s">
-        <v>309</v>
+      <c r="P20" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="Q20" s="8"/>
-      <c r="R20" s="50" t="s">
-        <v>360</v>
+      <c r="R20" s="34" t="s">
+        <v>353</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" ht="18">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="49" t="s">
-        <v>363</v>
+      <c r="D21" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="49" t="s">
-        <v>364</v>
+      <c r="H21" s="33" t="s">
+        <v>357</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>18</v>
@@ -2950,36 +2994,36 @@
         <v>17</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M21" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="49" t="s">
-        <v>329</v>
+      <c r="P21" s="33" t="s">
+        <v>322</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="11" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" ht="18">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="49" t="s">
-        <v>366</v>
+      <c r="D22" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="49" t="s">
-        <v>364</v>
+      <c r="H22" s="33" t="s">
+        <v>357</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>18</v>
@@ -2991,36 +3035,36 @@
         <v>17</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M22" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O22" s="8"/>
-      <c r="P22" s="49" t="s">
-        <v>329</v>
+      <c r="P22" s="33" t="s">
+        <v>322</v>
       </c>
       <c r="Q22" s="8"/>
-      <c r="R22" s="50" t="s">
-        <v>367</v>
+      <c r="R22" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" ht="18">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="49" t="s">
-        <v>368</v>
+      <c r="D23" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="49" t="s">
-        <v>348</v>
+      <c r="H23" s="33" t="s">
+        <v>341</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>18</v>
@@ -3032,36 +3076,36 @@
         <v>17</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M23" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O23" s="8"/>
-      <c r="P23" s="49" t="s">
-        <v>329</v>
+      <c r="P23" s="33" t="s">
+        <v>322</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="11" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" ht="18">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="49" t="s">
-        <v>366</v>
+      <c r="D24" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="49" t="s">
-        <v>348</v>
+      <c r="H24" s="33" t="s">
+        <v>341</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>18</v>
@@ -3073,33 +3117,33 @@
         <v>17</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M24" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="8"/>
-      <c r="P24" s="49" t="s">
-        <v>329</v>
+      <c r="P24" s="33" t="s">
+        <v>322</v>
       </c>
       <c r="Q24" s="8"/>
-      <c r="R24" s="50" t="s">
-        <v>370</v>
+      <c r="R24" s="34" t="s">
+        <v>363</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" ht="18">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="s">
         <v>172</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>17</v>
@@ -3108,7 +3152,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
@@ -3120,16 +3164,16 @@
         <v>17</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M25" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>18</v>
@@ -3138,80 +3182,80 @@
         <v>17</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" ht="18">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M26" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" ht="18">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>173</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="I27" s="6" t="s">
         <v>18</v>
       </c>
@@ -3222,16 +3266,16 @@
         <v>17</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M27" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>18</v>
@@ -3240,70 +3284,70 @@
         <v>17</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" ht="18">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="I28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M28" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" ht="18">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="s">
         <v>174</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>17</v>
@@ -3312,7 +3356,7 @@
         <v>17</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>18</v>
@@ -3324,16 +3368,16 @@
         <v>17</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M29" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>18</v>
@@ -3342,28 +3386,28 @@
         <v>17</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" ht="18">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>18</v>
@@ -3375,16 +3419,16 @@
         <v>17</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>18</v>
@@ -3393,28 +3437,28 @@
         <v>17</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" ht="18">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>18</v>
@@ -3426,16 +3470,16 @@
         <v>17</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M31" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>18</v>
@@ -3444,28 +3488,28 @@
         <v>17</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" ht="18">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>18</v>
@@ -3477,16 +3521,16 @@
         <v>17</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M32" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>18</v>
@@ -3495,7 +3539,7 @@
         <v>17</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="3"/>
@@ -3518,538 +3562,2255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
-  <dimension ref="B2:S12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12638054-64A9-524F-9B9E-6BD93F14FA02}">
+  <dimension ref="B2:W32"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
-    <col min="17" max="17" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="114" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="G2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="V2" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="S2" s="20" t="s">
+      <c r="W2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="25"/>
+    <row r="3" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B3" s="42"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>114</v>
+        <v>366</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>153</v>
+        <v>370</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>157</v>
+        <v>372</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="36"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="36"/>
+    </row>
+    <row r="4" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="C4" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="J4" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="N4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="C5" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B6" s="22"/>
+      <c r="C6" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="6">
-        <v>0.7893</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
+      <c r="L6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="J7" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B8" s="22"/>
+      <c r="C8" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B9" s="22"/>
+      <c r="C9" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
+      <c r="N9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B10" s="22"/>
+      <c r="C10" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="J10" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="N10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="6">
-        <v>0.7893</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="6">
-        <v>10</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
+      <c r="L11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B12" s="22"/>
+      <c r="C12" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.7893</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="6">
-        <v>10</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
+      <c r="J12" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.7893</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="6">
-        <v>90</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
+      <c r="K12" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B13" s="22"/>
+      <c r="C13" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.7893</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="6">
-        <v>100</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
+      <c r="J13" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="K13" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.7893</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="6">
-        <v>150</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
+      <c r="P13" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B14" s="22"/>
+      <c r="C14" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.7893</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="6">
-        <v>10</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
+      <c r="J14" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.7893</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="3"/>
+      <c r="K14" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B15" s="22"/>
+      <c r="C15" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B18" s="22"/>
+      <c r="C18" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B19" s="22"/>
+      <c r="C19" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B21" s="22"/>
+      <c r="C21" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B22" s="22"/>
+      <c r="C22" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P22" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="V22" s="4"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B24" s="22"/>
+      <c r="C24" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="8"/>
+      <c r="S24" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B25" s="22"/>
+      <c r="C25" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="2:23" ht="34" customHeight="1">
+      <c r="B26" s="22"/>
+      <c r="C26" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="V26" s="5"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B27" s="22"/>
+      <c r="C27" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="V27" s="5"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B28" s="22"/>
+      <c r="C28" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P28" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V28" s="5"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B29" s="22"/>
+      <c r="C29" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P29" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B30" s="22"/>
+      <c r="C30" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="V30" s="5"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P31" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="V31" s="5"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B32" s="22"/>
+      <c r="C32" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P32" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="V32" s="5"/>
+      <c r="W32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
+  <dimension ref="B2:S12"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.5" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="17" max="17" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B3" s="42"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="C4" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.7893</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="C5" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="2:19" ht="34" customHeight="1">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.7893</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="6">
+        <v>10</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="2:19" ht="34" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.7893</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="6">
+        <v>10</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="2:19" ht="34" customHeight="1">
+      <c r="B8" s="22"/>
+      <c r="C8" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.7893</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="6">
+        <v>90</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="2:19" ht="34" customHeight="1">
+      <c r="B9" s="22"/>
+      <c r="C9" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.7893</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="6">
+        <v>100</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="2:19" ht="34" customHeight="1">
+      <c r="B10" s="22"/>
+      <c r="C10" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.7893</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="6">
+        <v>150</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="2:19" ht="34" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.7893</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="6">
+        <v>10</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="2:19" ht="34" customHeight="1">
+      <c r="B12" s="22"/>
+      <c r="C12" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.7893</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -4057,86 +5818,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:V22"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.08203125" customWidth="1"/>
-    <col min="10" max="10" width="34.08203125" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
     <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.9140625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="79" customWidth="1"/>
-    <col min="21" max="21" width="15.08203125" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="G2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="U2" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+    <row r="3" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B3" s="42"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -4173,20 +5934,20 @@
       <c r="S3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+    </row>
+    <row r="4" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="C4" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
@@ -4214,10 +5975,10 @@
       <c r="O4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="28">
         <v>1234</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="28">
         <v>1234</v>
       </c>
       <c r="R4" s="10" t="s">
@@ -4229,21 +5990,21 @@
       <c r="T4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="38"/>
+      <c r="U4" s="24"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="32" t="s">
+    <row r="5" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="C5" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
@@ -4271,10 +6032,10 @@
       <c r="O5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="28">
         <v>1234</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="28">
         <v>1234</v>
       </c>
       <c r="R5" s="10" t="s">
@@ -4286,21 +6047,21 @@
       <c r="T5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="38"/>
+      <c r="U5" s="24"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="36"/>
+    <row r="6" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
@@ -4328,10 +6089,10 @@
       <c r="O6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="28">
         <v>1234</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="28">
         <v>9876</v>
       </c>
       <c r="R6" s="10" t="s">
@@ -4343,19 +6104,19 @@
       <c r="T6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="38"/>
+      <c r="U6" s="24"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36"/>
+    <row r="7" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
@@ -4383,10 +6144,10 @@
       <c r="O7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="28">
         <v>1234</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="28">
         <v>1234</v>
       </c>
       <c r="R7" s="10" t="s">
@@ -4398,21 +6159,21 @@
       <c r="T7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="39"/>
+      <c r="U7" s="25"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="F8" s="36"/>
+    <row r="8" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B8" s="22"/>
+      <c r="C8" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="6" t="s">
         <v>169</v>
       </c>
@@ -4424,24 +6185,24 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="39"/>
+      <c r="U8" s="25"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
+    <row r="9" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B9" s="22"/>
+      <c r="C9" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
@@ -4463,7 +6224,7 @@
       <c r="M9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="28" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="10" t="s">
@@ -4484,21 +6245,21 @@
       <c r="T9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="38"/>
+      <c r="U9" s="24"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" s="36"/>
+    <row r="10" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B10" s="22"/>
+      <c r="C10" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
@@ -4520,7 +6281,7 @@
       <c r="M10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="28" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="10" t="s">
@@ -4541,21 +6302,21 @@
       <c r="T10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="38"/>
+      <c r="U10" s="24"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="36"/>
+    <row r="11" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
@@ -4566,7 +6327,7 @@
         <v>48</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>17</v>
@@ -4577,7 +6338,7 @@
       <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="28" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="10" t="s">
@@ -4598,19 +6359,19 @@
       <c r="T11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="38"/>
+      <c r="U11" s="24"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
+    <row r="12" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B12" s="22"/>
+      <c r="C12" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
@@ -4632,7 +6393,7 @@
       <c r="M12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -4653,21 +6414,21 @@
       <c r="T12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="38"/>
+      <c r="U12" s="24"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13" s="36"/>
+    <row r="13" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B13" s="22"/>
+      <c r="C13" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="22"/>
       <c r="G13" s="6" t="s">
         <v>58</v>
       </c>
@@ -4681,7 +6442,7 @@
         <v>59</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>26</v>
@@ -4710,19 +6471,19 @@
       <c r="T13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="38"/>
+      <c r="U13" s="24"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
+    <row r="14" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B14" s="22"/>
+      <c r="C14" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
@@ -4750,7 +6511,7 @@
       <c r="O14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="28">
         <v>1234</v>
       </c>
       <c r="Q14" s="10" t="s">
@@ -4765,21 +6526,21 @@
       <c r="T14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="38"/>
+      <c r="U14" s="24"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="36"/>
+    <row r="15" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B15" s="22"/>
+      <c r="C15" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="22"/>
       <c r="G15" s="6" t="s">
         <v>41</v>
       </c>
@@ -4822,21 +6583,21 @@
       <c r="T15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="38"/>
+      <c r="U15" s="24"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B16" s="36"/>
-      <c r="C16" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="36"/>
+    <row r="16" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="22"/>
       <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
@@ -4864,7 +6625,7 @@
       <c r="O16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="28">
         <v>9876</v>
       </c>
       <c r="Q16" s="10" t="s">
@@ -4879,19 +6640,19 @@
       <c r="T16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="U16" s="38"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36"/>
+    <row r="17" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="6" t="s">
         <v>44</v>
       </c>
@@ -4919,7 +6680,7 @@
       <c r="O17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="28">
         <v>1234</v>
       </c>
       <c r="Q17" s="10" t="s">
@@ -4934,21 +6695,21 @@
       <c r="T17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="39"/>
+      <c r="U17" s="25"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B18" s="36"/>
-      <c r="C18" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="F18" s="36"/>
+    <row r="18" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B18" s="22"/>
+      <c r="C18" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="22"/>
       <c r="G18" s="6" t="s">
         <v>169</v>
       </c>
@@ -4960,24 +6721,24 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="39"/>
+      <c r="U18" s="25"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="34" customHeight="1">
-      <c r="B19" s="36"/>
-      <c r="C19" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="6" t="s">
         <v>52</v>
       </c>
@@ -4988,7 +6749,7 @@
         <v>47</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>17</v>
@@ -5020,19 +6781,19 @@
       <c r="T19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U19" s="39"/>
+      <c r="U19" s="25"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
+    <row r="20" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="6" t="s">
         <v>53</v>
       </c>
@@ -5075,19 +6836,19 @@
       <c r="T20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="U20" s="39"/>
+      <c r="U20" s="25"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B21" s="36"/>
-      <c r="C21" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
+    <row r="21" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B21" s="22"/>
+      <c r="C21" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="6" t="s">
         <v>51</v>
       </c>
@@ -5130,21 +6891,21 @@
       <c r="T21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="39"/>
+      <c r="U21" s="25"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B22" s="36"/>
-      <c r="C22" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="F22" s="36"/>
+    <row r="22" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B22" s="22"/>
+      <c r="C22" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="22"/>
       <c r="G22" s="6" t="s">
         <v>61</v>
       </c>
@@ -5187,22 +6948,22 @@
       <c r="T22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="39"/>
+      <c r="U22" s="25"/>
       <c r="V22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5210,112 +6971,112 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.58203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="54.4140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-    </row>
-    <row r="2" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="30" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+    </row>
+    <row r="2" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="G2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="U2" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+    <row r="3" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -5352,21 +7113,21 @@
       <c r="S3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+    </row>
+    <row r="4" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>62</v>
       </c>
@@ -5409,22 +7170,22 @@
       <c r="T4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="U4" s="38"/>
+      <c r="U4" s="24"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="32" t="s">
+    <row r="5" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>63</v>
       </c>
@@ -5467,20 +7228,20 @@
       <c r="T5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="38"/>
+      <c r="U5" s="24"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36"/>
+    <row r="6" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>64</v>
       </c>
@@ -5523,20 +7284,20 @@
       <c r="T6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="39"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36"/>
+    <row r="7" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="6" t="s">
         <v>69</v>
       </c>
@@ -5579,20 +7340,20 @@
       <c r="T7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="U7" s="39"/>
+      <c r="U7" s="25"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36"/>
+    <row r="8" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="6" t="s">
         <v>70</v>
       </c>
@@ -5635,20 +7396,20 @@
       <c r="T8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="39"/>
+      <c r="U8" s="25"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
+    <row r="9" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="6" t="s">
         <v>71</v>
       </c>
@@ -5670,7 +7431,7 @@
       <c r="M9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="27">
         <v>43800</v>
       </c>
       <c r="O9" s="10" t="s">
@@ -5691,22 +7452,22 @@
       <c r="T9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="39"/>
+      <c r="U9" s="25"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="36"/>
+    <row r="10" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="6" t="s">
         <v>73</v>
       </c>
@@ -5728,7 +7489,7 @@
       <c r="M10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="27">
         <v>43794</v>
       </c>
       <c r="O10" s="10" t="s">
@@ -5749,22 +7510,22 @@
       <c r="T10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="39"/>
+      <c r="U10" s="25"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
+    <row r="11" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="6" t="s">
         <v>72</v>
       </c>
@@ -5786,7 +7547,7 @@
       <c r="M11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="27">
         <v>43800</v>
       </c>
       <c r="O11" s="10" t="s">
@@ -5807,20 +7568,20 @@
       <c r="T11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="39"/>
+      <c r="U11" s="25"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
+    <row r="12" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="6" t="s">
         <v>170</v>
       </c>
@@ -5842,7 +7603,7 @@
       <c r="M12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="27">
         <v>43800</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -5863,20 +7624,20 @@
       <c r="T12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="U12" s="39"/>
+      <c r="U12" s="25"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="36"/>
+    <row r="13" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="6" t="s">
         <v>171</v>
       </c>
@@ -5886,27 +7647,27 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="42"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="39"/>
+      <c r="U13" s="25"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="34.15" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
+    <row r="14" spans="1:22" ht="34.25" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="6" t="s">
         <v>74</v>
       </c>
@@ -5928,7 +7689,7 @@
       <c r="M14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="27">
         <v>43800</v>
       </c>
       <c r="O14" s="10" t="s">
@@ -5949,22 +7710,22 @@
       <c r="T14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="39"/>
+      <c r="U14" s="25"/>
       <c r="V14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5972,81 +7733,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:S51"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.08203125" customWidth="1"/>
-    <col min="5" max="5" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="108.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.08203125" customWidth="1"/>
-    <col min="9" max="9" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
     <col min="17" max="17" width="107.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.08203125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="G2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="R2" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+    <row r="3" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B3" s="42"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="7" t="s">
         <v>107</v>
       </c>
@@ -6057,10 +7818,10 @@
         <v>114</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>95</v>
@@ -6074,22 +7835,22 @@
       <c r="P3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B4" s="22"/>
+      <c r="C4" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>113</v>
@@ -6121,21 +7882,21 @@
       <c r="Q4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="38"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="32" t="s">
+    <row r="5" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="C5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>113</v>
@@ -6167,21 +7928,21 @@
       <c r="Q5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="R5" s="39"/>
+      <c r="R5" s="25"/>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>113</v>
@@ -6213,23 +7974,23 @@
       <c r="Q6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="39"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="36"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>113</v>
@@ -6261,21 +8022,21 @@
       <c r="Q7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="39"/>
+      <c r="R7" s="25"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>113</v>
@@ -6307,21 +8068,21 @@
       <c r="Q8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="39"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>113</v>
@@ -6353,21 +8114,21 @@
       <c r="Q9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="39"/>
+      <c r="R9" s="25"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>113</v>
@@ -6399,21 +8160,21 @@
       <c r="Q10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="39"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>117</v>
@@ -6445,21 +8206,21 @@
       <c r="Q11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="R11" s="39"/>
+      <c r="R11" s="25"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>117</v>
@@ -6491,23 +8252,23 @@
       <c r="Q12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="39"/>
+      <c r="R12" s="25"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="2:19" ht="34" customHeight="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="36"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="22"/>
       <c r="G13" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>117</v>
@@ -6539,21 +8300,21 @@
       <c r="Q13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="R13" s="39"/>
+      <c r="R13" s="25"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" ht="34" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>117</v>
@@ -6585,21 +8346,21 @@
       <c r="Q14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="R14" s="39"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" ht="34" customHeight="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>117</v>
@@ -6631,21 +8392,21 @@
       <c r="Q15" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="R15" s="39"/>
+      <c r="R15" s="25"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B16" s="36"/>
-      <c r="C16" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36"/>
+    <row r="16" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>117</v>
@@ -6677,21 +8438,21 @@
       <c r="Q16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="39"/>
+      <c r="R16" s="25"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36"/>
+    <row r="17" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>126</v>
@@ -6706,7 +8467,7 @@
         <v>128</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>123</v>
@@ -6721,23 +8482,23 @@
         <v>17</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="R17" s="38"/>
+        <v>259</v>
+      </c>
+      <c r="R17" s="24"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B18" s="36"/>
-      <c r="C18" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36"/>
+    <row r="18" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B18" s="22"/>
+      <c r="C18" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>126</v>
@@ -6752,7 +8513,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>123</v>
@@ -6769,21 +8530,21 @@
       <c r="Q18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="38"/>
+      <c r="R18" s="24"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B19" s="36"/>
-      <c r="C19" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
+    <row r="19" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B19" s="22"/>
+      <c r="C19" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>126</v>
@@ -6795,7 +8556,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>128</v>
@@ -6813,23 +8574,23 @@
         <v>17</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="R19" s="38"/>
+        <v>259</v>
+      </c>
+      <c r="R19" s="24"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
+    <row r="20" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>126</v>
@@ -6844,7 +8605,7 @@
         <v>129</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>123</v>
@@ -6859,23 +8620,23 @@
         <v>17</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="R20" s="38"/>
+        <v>274</v>
+      </c>
+      <c r="R20" s="24"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B21" s="36"/>
-      <c r="C21" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
+    <row r="21" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B21" s="22"/>
+      <c r="C21" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>136</v>
@@ -6890,7 +8651,7 @@
         <v>128</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>123</v>
@@ -6905,23 +8666,23 @@
         <v>17</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="R21" s="38"/>
+        <v>260</v>
+      </c>
+      <c r="R21" s="24"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B22" s="36"/>
-      <c r="C22" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36"/>
+    <row r="22" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B22" s="22"/>
+      <c r="C22" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>136</v>
@@ -6936,7 +8697,7 @@
         <v>128</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>123</v>
@@ -6953,21 +8714,21 @@
       <c r="Q22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="38"/>
+      <c r="R22" s="24"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="36"/>
+    <row r="23" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>136</v>
@@ -6979,7 +8740,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>128</v>
@@ -6997,23 +8758,23 @@
         <v>17</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="R23" s="38"/>
+        <v>260</v>
+      </c>
+      <c r="R23" s="24"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B24" s="36"/>
-      <c r="C24" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36"/>
+    <row r="24" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B24" s="22"/>
+      <c r="C24" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>127</v>
@@ -7028,7 +8789,7 @@
         <v>129</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>123</v>
@@ -7043,23 +8804,23 @@
         <v>17</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="R24" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="R24" s="24"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
+    <row r="25" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B25" s="22"/>
+      <c r="C25" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>106</v>
@@ -7074,7 +8835,7 @@
         <v>124</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>123</v>
@@ -7089,23 +8850,23 @@
         <v>17</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="R25" s="38"/>
+        <v>262</v>
+      </c>
+      <c r="R25" s="24"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B26" s="36"/>
-      <c r="C26" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36"/>
+    <row r="26" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B26" s="22"/>
+      <c r="C26" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>106</v>
@@ -7137,21 +8898,21 @@
       <c r="Q26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="38"/>
+      <c r="R26" s="24"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B27" s="36"/>
-      <c r="C27" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
+    <row r="27" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B27" s="22"/>
+      <c r="C27" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>106</v>
@@ -7163,7 +8924,7 @@
         <v>17</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>124</v>
@@ -7181,23 +8942,23 @@
         <v>17</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="R27" s="38"/>
+        <v>262</v>
+      </c>
+      <c r="R27" s="24"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B28" s="36"/>
-      <c r="C28" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="36"/>
+    <row r="28" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B28" s="22"/>
+      <c r="C28" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>106</v>
@@ -7212,7 +8973,7 @@
         <v>125</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>123</v>
@@ -7227,23 +8988,23 @@
         <v>17</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="R28" s="38"/>
+        <v>273</v>
+      </c>
+      <c r="R28" s="24"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36"/>
+    <row r="29" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B29" s="22"/>
+      <c r="C29" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>137</v>
@@ -7258,7 +9019,7 @@
         <v>131</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>123</v>
@@ -7273,23 +9034,23 @@
         <v>17</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="R29" s="38"/>
+        <v>263</v>
+      </c>
+      <c r="R29" s="24"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B30" s="36"/>
-      <c r="C30" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="36"/>
+    <row r="30" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B30" s="22"/>
+      <c r="C30" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>137</v>
@@ -7321,21 +9082,21 @@
       <c r="Q30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="38"/>
+      <c r="R30" s="24"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B31" s="36"/>
-      <c r="C31" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="36"/>
+    <row r="31" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>137</v>
@@ -7347,7 +9108,7 @@
         <v>17</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>131</v>
@@ -7365,23 +9126,23 @@
         <v>17</v>
       </c>
       <c r="Q31" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="R31" s="38"/>
+        <v>263</v>
+      </c>
+      <c r="R31" s="24"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B32" s="36"/>
-      <c r="C32" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="36"/>
+    <row r="32" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B32" s="22"/>
+      <c r="C32" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>130</v>
@@ -7396,7 +9157,7 @@
         <v>132</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>123</v>
@@ -7411,23 +9172,23 @@
         <v>17</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="R32" s="38"/>
+        <v>268</v>
+      </c>
+      <c r="R32" s="24"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B33" s="36"/>
-      <c r="C33" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="36"/>
+    <row r="33" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B33" s="22"/>
+      <c r="C33" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>138</v>
@@ -7442,7 +9203,7 @@
         <v>131</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>123</v>
@@ -7457,23 +9218,23 @@
         <v>17</v>
       </c>
       <c r="Q33" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="R33" s="38"/>
+        <v>264</v>
+      </c>
+      <c r="R33" s="24"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B34" s="36"/>
-      <c r="C34" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
+    <row r="34" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B34" s="22"/>
+      <c r="C34" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>138</v>
@@ -7505,21 +9266,21 @@
       <c r="Q34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="38"/>
+      <c r="R34" s="24"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B35" s="36"/>
-      <c r="C35" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="36"/>
+    <row r="35" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B35" s="22"/>
+      <c r="C35" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>138</v>
@@ -7531,7 +9292,7 @@
         <v>17</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>131</v>
@@ -7549,23 +9310,23 @@
         <v>17</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="R35" s="38"/>
+        <v>264</v>
+      </c>
+      <c r="R35" s="24"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B36" s="36"/>
-      <c r="C36" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="36"/>
+    <row r="36" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B36" s="22"/>
+      <c r="C36" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>133</v>
@@ -7580,7 +9341,7 @@
         <v>132</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>123</v>
@@ -7595,23 +9356,23 @@
         <v>17</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="R36" s="38"/>
+        <v>267</v>
+      </c>
+      <c r="R36" s="24"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B37" s="36"/>
-      <c r="C37" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="36"/>
+    <row r="37" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B37" s="22"/>
+      <c r="C37" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>139</v>
@@ -7626,7 +9387,7 @@
         <v>131</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>123</v>
@@ -7641,23 +9402,23 @@
         <v>17</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="R37" s="38"/>
+        <v>265</v>
+      </c>
+      <c r="R37" s="24"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B38" s="36"/>
-      <c r="C38" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="36"/>
+    <row r="38" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B38" s="22"/>
+      <c r="C38" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>139</v>
@@ -7689,21 +9450,21 @@
       <c r="Q38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="38"/>
+      <c r="R38" s="24"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B39" s="36"/>
-      <c r="C39" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="36"/>
+    <row r="39" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B39" s="22"/>
+      <c r="C39" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>139</v>
@@ -7715,7 +9476,7 @@
         <v>17</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>131</v>
@@ -7733,23 +9494,23 @@
         <v>17</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="R39" s="38"/>
+        <v>265</v>
+      </c>
+      <c r="R39" s="24"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B40" s="36"/>
-      <c r="C40" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="36"/>
+    <row r="40" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>134</v>
@@ -7764,7 +9525,7 @@
         <v>132</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>123</v>
@@ -7779,23 +9540,23 @@
         <v>17</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="R40" s="38"/>
+        <v>266</v>
+      </c>
+      <c r="R40" s="24"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B41" s="36"/>
-      <c r="C41" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="36"/>
+    <row r="41" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B41" s="22"/>
+      <c r="C41" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>135</v>
@@ -7810,7 +9571,7 @@
         <v>131</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>123</v>
@@ -7825,23 +9586,23 @@
         <v>17</v>
       </c>
       <c r="Q41" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="R41" s="38"/>
+        <v>269</v>
+      </c>
+      <c r="R41" s="24"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B42" s="36"/>
-      <c r="C42" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="36"/>
+    <row r="42" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B42" s="22"/>
+      <c r="C42" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>135</v>
@@ -7873,21 +9634,21 @@
       <c r="Q42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="38"/>
+      <c r="R42" s="24"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B43" s="36"/>
-      <c r="C43" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="36"/>
+    <row r="43" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B43" s="22"/>
+      <c r="C43" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>135</v>
@@ -7899,7 +9660,7 @@
         <v>17</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>131</v>
@@ -7917,23 +9678,23 @@
         <v>17</v>
       </c>
       <c r="Q43" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="R43" s="38"/>
+        <v>269</v>
+      </c>
+      <c r="R43" s="24"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B44" s="36"/>
-      <c r="C44" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="36"/>
+    <row r="44" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B44" s="22"/>
+      <c r="C44" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>135</v>
@@ -7948,7 +9709,7 @@
         <v>132</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>123</v>
@@ -7963,23 +9724,23 @@
         <v>17</v>
       </c>
       <c r="Q44" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="R44" s="38"/>
+        <v>270</v>
+      </c>
+      <c r="R44" s="24"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B45" s="36"/>
-      <c r="C45" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="36"/>
+    <row r="45" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B45" s="22"/>
+      <c r="C45" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>142</v>
@@ -7994,7 +9755,7 @@
         <v>140</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>123</v>
@@ -8009,23 +9770,23 @@
         <v>17</v>
       </c>
       <c r="Q45" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="R45" s="38"/>
+        <v>271</v>
+      </c>
+      <c r="R45" s="24"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B46" s="36"/>
-      <c r="C46" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="36"/>
+    <row r="46" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B46" s="22"/>
+      <c r="C46" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>142</v>
@@ -8057,21 +9818,21 @@
       <c r="Q46" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="38"/>
+      <c r="R46" s="24"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B47" s="36"/>
-      <c r="C47" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="36"/>
+    <row r="47" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B47" s="22"/>
+      <c r="C47" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>142</v>
@@ -8083,7 +9844,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>140</v>
@@ -8101,23 +9862,23 @@
         <v>17</v>
       </c>
       <c r="Q47" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="R47" s="38"/>
+        <v>271</v>
+      </c>
+      <c r="R47" s="24"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B48" s="36"/>
-      <c r="C48" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="36"/>
+    <row r="48" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B48" s="22"/>
+      <c r="C48" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>142</v>
@@ -8132,7 +9893,7 @@
         <v>141</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>123</v>
@@ -8147,25 +9908,25 @@
         <v>17</v>
       </c>
       <c r="Q48" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="R48" s="38"/>
+        <v>272</v>
+      </c>
+      <c r="R48" s="24"/>
       <c r="S48" s="3"/>
     </row>
     <row r="49" spans="2:19" ht="34" customHeight="1">
-      <c r="B49" s="36"/>
-      <c r="C49" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="32" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>106</v>
@@ -8195,23 +9956,23 @@
         <v>18</v>
       </c>
       <c r="Q49" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="R49" s="39"/>
+        <v>258</v>
+      </c>
+      <c r="R49" s="25"/>
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="2:19" ht="34" customHeight="1">
-      <c r="B50" s="36"/>
-      <c r="C50" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="36"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>106</v>
@@ -8243,21 +10004,21 @@
       <c r="Q50" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="R50" s="39"/>
+      <c r="R50" s="25"/>
       <c r="S50" s="3"/>
     </row>
     <row r="51" spans="2:19" ht="34" customHeight="1">
-      <c r="B51" s="36"/>
-      <c r="C51" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="36"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>106</v>
@@ -8289,7 +10050,7 @@
       <c r="Q51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="39"/>
+      <c r="R51" s="25"/>
       <c r="S51" s="3"/>
     </row>
   </sheetData>

--- a/Document/3_Test Case/Test case 양식 맞춰서.xlsx
+++ b/Document/3_Test Case/Test case 양식 맞춰서.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54A5A1A-47D2-44E7-A75C-57AF53E4B163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC831B15-8B6F-C445-ADAF-921C8F6307B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1 일부" sheetId="14" r:id="rId1"/>
-    <sheet name="Test Case_Result_UC2" sheetId="13" r:id="rId2"/>
-    <sheet name="Test Case_Result_UC3" sheetId="7" r:id="rId3"/>
-    <sheet name="Test Case_Result_UC4" sheetId="9" r:id="rId4"/>
-    <sheet name="Test Case_Result_UC5" sheetId="12" r:id="rId5"/>
+    <sheet name="Test Case_Result_UC1" sheetId="15" r:id="rId2"/>
+    <sheet name="Test Case_Result_UC2" sheetId="13" r:id="rId3"/>
+    <sheet name="Test Case_Result_UC3" sheetId="7" r:id="rId4"/>
+    <sheet name="Test Case_Result_UC4" sheetId="9" r:id="rId5"/>
+    <sheet name="Test Case_Result_UC5" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="386">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -751,10 +752,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해당 장소에 존재하는 약품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>약품 별칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1464,6 +1461,45 @@
   </si>
   <si>
     <t>Lab 생성</t>
+  </si>
+  <si>
+    <t>장소</t>
+  </si>
+  <si>
+    <t>해당 장소에 존재하는 약품</t>
+  </si>
+  <si>
+    <t>해당 장소에 존재하는 약품 별칭</t>
+  </si>
+  <si>
+    <t>my Lab 약품 보관 장소 관리</t>
+  </si>
+  <si>
+    <t>약품 추가 및 장소 선택</t>
+  </si>
+  <si>
+    <t>약품이 보관될 장소 추천</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인</t>
+  </si>
+  <si>
+    <t>약품 유효기간</t>
+  </si>
+  <si>
+    <t>장소 수정 버튼</t>
+  </si>
+  <si>
+    <t>약품 이름을 잘못 입력한 경우</t>
+  </si>
+  <si>
+    <t>약품 별칭이 이미 존재하는 경우</t>
+  </si>
+  <si>
+    <t>약품 별칭을 입력 하지 않는 경우</t>
+  </si>
+  <si>
+    <t>추천할 장소가 없는 경우</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1511,6 +1547,11 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="함초롬바탕"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1618,7 +1659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1693,6 +1734,11 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,17 +1763,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1744,11 +1790,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{987B8334-A4AC-46AB-BB4B-C8D7EA545DEC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2053,72 +2103,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F218289-417F-4BB3-B14A-D058BACC0645}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="L2" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:R32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.83203125" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.08203125" customWidth="1"/>
+    <col min="15" max="15" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="34" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="34.15" customHeight="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+    <row r="3" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="8" t="s">
         <v>179</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>180</v>
+        <v>374</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>178</v>
@@ -2127,47 +2179,47 @@
         <v>33</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="35"/>
-    </row>
-    <row r="4" spans="2:20" ht="34.15" customHeight="1">
+      <c r="R3" s="38"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="38"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.25" customHeight="1">
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
       <c r="D4" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>150</v>
@@ -2176,78 +2228,78 @@
         <v>18</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="34.15" customHeight="1">
+    <row r="5" spans="2:20" ht="34.25" customHeight="1">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="N5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="18"/>
@@ -2256,16 +2308,16 @@
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>150</v>
@@ -2274,29 +2326,29 @@
         <v>18</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="N6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="18"/>
@@ -2305,16 +2357,16 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>150</v>
@@ -2323,29 +2375,29 @@
         <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="M7" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="N7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="18"/>
@@ -2354,16 +2406,16 @@
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>150</v>
@@ -2372,29 +2424,29 @@
         <v>18</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M8" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="18"/>
@@ -2403,16 +2455,16 @@
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>150</v>
@@ -2421,16 +2473,16 @@
         <v>18</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>17</v>
@@ -2443,7 +2495,7 @@
         <v>17</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="18"/>
@@ -2452,16 +2504,16 @@
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>150</v>
@@ -2470,16 +2522,16 @@
         <v>18</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>17</v>
@@ -2492,7 +2544,7 @@
         <v>17</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="18"/>
@@ -2501,16 +2553,16 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>150</v>
@@ -2519,191 +2571,191 @@
         <v>18</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="N11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="R11" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" ht="18">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" ht="18">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" ht="18">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" ht="18">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>18</v>
@@ -2715,21 +2767,21 @@
         <v>17</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M15" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="18"/>
@@ -2738,13 +2790,13 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>18</v>
@@ -2756,36 +2808,36 @@
         <v>17</v>
       </c>
       <c r="L16" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" ht="18">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>18</v>
@@ -2797,36 +2849,36 @@
         <v>17</v>
       </c>
       <c r="L17" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M17" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" ht="18">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>18</v>
@@ -2838,36 +2890,36 @@
         <v>17</v>
       </c>
       <c r="L18" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M18" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" ht="18">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>18</v>
@@ -2879,36 +2931,36 @@
         <v>17</v>
       </c>
       <c r="L19" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M19" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" ht="18">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>18</v>
@@ -2920,36 +2972,36 @@
         <v>17</v>
       </c>
       <c r="L20" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M20" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" ht="18">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>18</v>
@@ -2961,36 +3013,36 @@
         <v>17</v>
       </c>
       <c r="L21" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" ht="18">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>18</v>
@@ -3002,36 +3054,36 @@
         <v>17</v>
       </c>
       <c r="L22" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M22" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" ht="18">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>18</v>
@@ -3043,36 +3095,36 @@
         <v>17</v>
       </c>
       <c r="L23" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M23" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O23" s="8"/>
       <c r="P23" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" ht="18">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>18</v>
@@ -3084,135 +3136,135 @@
         <v>17</v>
       </c>
       <c r="L24" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M24" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" ht="18">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="s">
         <v>172</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" ht="18">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" ht="18">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>173</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>17</v>
@@ -3221,58 +3273,58 @@
         <v>17</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" ht="18">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>18</v>
@@ -3284,16 +3336,16 @@
         <v>17</v>
       </c>
       <c r="L28" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M28" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="M28" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="N28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>18</v>
@@ -3302,19 +3354,19 @@
         <v>17</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" ht="18">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="s">
         <v>174</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>17</v>
@@ -3323,7 +3375,7 @@
         <v>17</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>18</v>
@@ -3335,16 +3387,16 @@
         <v>17</v>
       </c>
       <c r="L29" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M29" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="M29" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="N29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>18</v>
@@ -3353,50 +3405,50 @@
         <v>17</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" ht="18">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="P30" s="6" t="s">
         <v>18</v>
       </c>
@@ -3404,28 +3456,28 @@
         <v>17</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" ht="18">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>18</v>
@@ -3437,16 +3489,16 @@
         <v>17</v>
       </c>
       <c r="L31" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M31" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="M31" s="30" t="s">
-        <v>312</v>
-      </c>
       <c r="N31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>18</v>
@@ -3455,58 +3507,58 @@
         <v>17</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" ht="18">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M32" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="3"/>
@@ -3529,78 +3581,1794 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BB10A5-8789-3C4E-B05D-AC87D7B435BB}">
+  <dimension ref="B2:W32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="10" max="10" width="30.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="114" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B2" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="38"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B4" s="21"/>
+      <c r="C4" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="2:23" ht="34" customHeight="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="2:23" ht="34" customHeight="1">
+      <c r="B7" s="21"/>
+      <c r="C7" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="2:23" ht="34" customHeight="1">
+      <c r="B8" s="21"/>
+      <c r="C8" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="2:23" ht="34" customHeight="1">
+      <c r="B9" s="21"/>
+      <c r="C9" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="2:23" ht="34" customHeight="1">
+      <c r="B10" s="21"/>
+      <c r="C10" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="2:23" ht="34" customHeight="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="2:23" ht="34" customHeight="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="2:23" ht="34" customHeight="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="2:23" ht="34" customHeight="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="2:23" ht="34" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="2:23" ht="34" customHeight="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="2:23" ht="34" customHeight="1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="2:23" ht="34" customHeight="1">
+      <c r="B18" s="21"/>
+      <c r="C18" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="2:23" ht="34" customHeight="1">
+      <c r="B19" s="21"/>
+      <c r="C19" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="2:23" ht="34" customHeight="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="2:23" ht="34" customHeight="1">
+      <c r="B21" s="21"/>
+      <c r="C21" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="2:23" ht="34" customHeight="1">
+      <c r="B22" s="21"/>
+      <c r="C22" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="2:23" ht="34" customHeight="1">
+      <c r="B23" s="21"/>
+      <c r="C23" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B24" s="21"/>
+      <c r="C24" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="8"/>
+      <c r="S24" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="V24" s="4"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="2:23" ht="34.25" customHeight="1">
+      <c r="B25" s="21"/>
+      <c r="C25" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="2:23" ht="34" customHeight="1">
+      <c r="B26" s="21"/>
+      <c r="C26" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V26" s="5"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="2:23" ht="34" customHeight="1">
+      <c r="B27" s="21"/>
+      <c r="C27" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="V27" s="5"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="2:23" ht="34" customHeight="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="V28" s="5"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="2:23" ht="34" customHeight="1">
+      <c r="B29" s="21"/>
+      <c r="C29" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="2:23" ht="34" customHeight="1">
+      <c r="B30" s="21"/>
+      <c r="C30" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P30" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="V30" s="5"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="2:23" ht="34" customHeight="1">
+      <c r="B31" s="21"/>
+      <c r="C31" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="V31" s="5"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="2:23" ht="34" customHeight="1">
+      <c r="B32" s="21"/>
+      <c r="C32" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="V32" s="5"/>
+      <c r="W32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:S12"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
-    <col min="17" max="17" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.08203125" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="17" max="17" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B2" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="42" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="43" t="s">
+      <c r="R2" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="R2" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="39"/>
+    <row r="3" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="8" t="s">
         <v>107</v>
       </c>
@@ -3628,17 +5396,17 @@
       <c r="P3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="35"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.15" customHeight="1">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="38"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="21"/>
@@ -3678,13 +5446,13 @@
       <c r="R4" s="4"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="34.15" customHeight="1">
+    <row r="5" spans="2:19" ht="34.25" customHeight="1">
       <c r="B5" s="21"/>
       <c r="C5" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
@@ -3727,10 +5495,10 @@
     <row r="6" spans="2:19" ht="34" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
@@ -3773,10 +5541,10 @@
     <row r="7" spans="2:19" ht="34" customHeight="1">
       <c r="B7" s="21"/>
       <c r="C7" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -3819,10 +5587,10 @@
     <row r="8" spans="2:19" ht="34" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
@@ -3865,10 +5633,10 @@
     <row r="9" spans="2:19" ht="34" customHeight="1">
       <c r="B9" s="21"/>
       <c r="C9" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="21"/>
@@ -3911,13 +5679,13 @@
     <row r="10" spans="2:19" ht="34" customHeight="1">
       <c r="B10" s="21"/>
       <c r="C10" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>304</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="6" t="s">
@@ -3959,10 +5727,10 @@
     <row r="11" spans="2:19" ht="34" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -4005,10 +5773,10 @@
     <row r="12" spans="2:19" ht="34" customHeight="1">
       <c r="B12" s="21"/>
       <c r="C12" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="21"/>
@@ -4050,17 +5818,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -4068,7 +5836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:V22"/>
   <sheetViews>
@@ -4076,80 +5844,80 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.08203125" customWidth="1"/>
-    <col min="10" max="10" width="34.08203125" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
     <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.9140625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="79" customWidth="1"/>
-    <col min="21" max="21" width="15.08203125" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B2" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="42" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="43" t="s">
+      <c r="U2" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="U2" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="34.15" customHeight="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+    <row r="3" spans="2:22" ht="34.25" customHeight="1">
+      <c r="B3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -4186,17 +5954,17 @@
       <c r="S3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="2:22" ht="34.15" customHeight="1">
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+    </row>
+    <row r="4" spans="2:22" ht="34.25" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>373</v>
+        <v>278</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>372</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="21"/>
@@ -4245,16 +6013,16 @@
       <c r="U4" s="23"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="2:22" ht="34.15" customHeight="1">
+    <row r="5" spans="2:22" ht="34.25" customHeight="1">
       <c r="B5" s="21"/>
       <c r="C5" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -4302,16 +6070,16 @@
       <c r="U5" s="23"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="2:22" ht="34.15" customHeight="1">
+    <row r="6" spans="2:22" ht="34.25" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
@@ -4359,13 +6127,13 @@
       <c r="U6" s="23"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="2:22" ht="34.15" customHeight="1">
+    <row r="7" spans="2:22" ht="34.25" customHeight="1">
       <c r="B7" s="21"/>
       <c r="C7" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -4414,16 +6182,16 @@
       <c r="U7" s="24"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="2:22" ht="34.15" customHeight="1">
+    <row r="8" spans="2:22" ht="34.25" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
@@ -4445,13 +6213,13 @@
       <c r="U8" s="24"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="2:22" ht="34.15" customHeight="1">
+    <row r="9" spans="2:22" ht="34.25" customHeight="1">
       <c r="B9" s="21"/>
       <c r="C9" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>288</v>
+        <v>278</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>287</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="21"/>
@@ -4500,16 +6268,16 @@
       <c r="U9" s="23"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="2:22" ht="34.15" customHeight="1">
+    <row r="10" spans="2:22" ht="34.25" customHeight="1">
       <c r="B10" s="21"/>
       <c r="C10" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="6" t="s">
@@ -4557,16 +6325,16 @@
       <c r="U10" s="23"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="2:22" ht="34.15" customHeight="1">
+    <row r="11" spans="2:22" ht="34.25" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="6" t="s">
@@ -4579,7 +6347,7 @@
         <v>48</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>17</v>
@@ -4614,13 +6382,13 @@
       <c r="U11" s="23"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="2:22" ht="34.15" customHeight="1">
+    <row r="12" spans="2:22" ht="34.25" customHeight="1">
       <c r="B12" s="21"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="21"/>
@@ -4669,16 +6437,16 @@
       <c r="U12" s="23"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="2:22" ht="34.15" customHeight="1">
+    <row r="13" spans="2:22" ht="34.25" customHeight="1">
       <c r="B13" s="21"/>
       <c r="C13" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="6" t="s">
@@ -4694,7 +6462,7 @@
         <v>59</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>26</v>
@@ -4726,13 +6494,13 @@
       <c r="U13" s="23"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="2:22" ht="34.15" customHeight="1">
+    <row r="14" spans="2:22" ht="34.25" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>289</v>
+        <v>278</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="21"/>
@@ -4781,16 +6549,16 @@
       <c r="U14" s="23"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="2:22" ht="34.15" customHeight="1">
+    <row r="15" spans="2:22" ht="34.25" customHeight="1">
       <c r="B15" s="21"/>
       <c r="C15" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="6" t="s">
@@ -4838,16 +6606,16 @@
       <c r="U15" s="23"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="2:22" ht="34.15" customHeight="1">
+    <row r="16" spans="2:22" ht="34.25" customHeight="1">
       <c r="B16" s="21"/>
       <c r="C16" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="6" t="s">
@@ -4895,13 +6663,13 @@
       <c r="U16" s="23"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="2:22" ht="34.15" customHeight="1">
+    <row r="17" spans="2:22" ht="34.25" customHeight="1">
       <c r="B17" s="21"/>
       <c r="C17" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21"/>
@@ -4950,16 +6718,16 @@
       <c r="U17" s="24"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="2:22" ht="34.15" customHeight="1">
+    <row r="18" spans="2:22" ht="34.25" customHeight="1">
       <c r="B18" s="21"/>
       <c r="C18" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="6" t="s">
@@ -4984,10 +6752,10 @@
     <row r="19" spans="2:22" ht="34" customHeight="1">
       <c r="B19" s="21"/>
       <c r="C19" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>290</v>
+        <v>278</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="21"/>
@@ -5001,7 +6769,7 @@
         <v>47</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>17</v>
@@ -5036,13 +6804,13 @@
       <c r="U19" s="24"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="2:22" ht="34.15" customHeight="1">
+    <row r="20" spans="2:22" ht="34.25" customHeight="1">
       <c r="B20" s="21"/>
       <c r="C20" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21"/>
@@ -5091,13 +6859,13 @@
       <c r="U20" s="24"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="2:22" ht="34.15" customHeight="1">
+    <row r="21" spans="2:22" ht="34.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21"/>
@@ -5146,16 +6914,16 @@
       <c r="U21" s="24"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="2:22" ht="34.15" customHeight="1">
+    <row r="22" spans="2:22" ht="34.25" customHeight="1">
       <c r="B22" s="21"/>
       <c r="C22" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="6" t="s">
@@ -5205,17 +6973,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5223,32 +6991,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.58203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="54.4140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5275,60 +7043,60 @@
       <c r="U1" s="25"/>
       <c r="V1" s="25"/>
     </row>
-    <row r="2" spans="1:22" ht="34.15" customHeight="1">
+    <row r="2" spans="1:22" ht="34.25" customHeight="1">
       <c r="A2" s="25"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="42" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="43" t="s">
+      <c r="U2" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="U2" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="34.15" customHeight="1">
+    <row r="3" spans="1:22" ht="34.25" customHeight="1">
       <c r="A3" s="25"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -5365,18 +7133,18 @@
       <c r="S3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="34.15" customHeight="1">
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" ht="34.25" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="21"/>
       <c r="C4" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="21"/>
@@ -5425,17 +7193,17 @@
       <c r="U4" s="23"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="34.15" customHeight="1">
+    <row r="5" spans="1:22" ht="34.25" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="21"/>
       <c r="C5" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
@@ -5483,14 +7251,14 @@
       <c r="U5" s="23"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="34.15" customHeight="1">
+    <row r="6" spans="1:22" ht="34.25" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="21"/>
       <c r="C6" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="21"/>
@@ -5539,14 +7307,14 @@
       <c r="U6" s="24"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="34.15" customHeight="1">
+    <row r="7" spans="1:22" ht="34.25" customHeight="1">
       <c r="A7" s="25"/>
       <c r="B7" s="21"/>
       <c r="C7" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -5595,14 +7363,14 @@
       <c r="U7" s="24"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="34.15" customHeight="1">
+    <row r="8" spans="1:22" ht="34.25" customHeight="1">
       <c r="A8" s="25"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="21"/>
@@ -5651,14 +7419,14 @@
       <c r="U8" s="24"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="34.15" customHeight="1">
+    <row r="9" spans="1:22" ht="34.25" customHeight="1">
       <c r="A9" s="25"/>
       <c r="B9" s="21"/>
       <c r="C9" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>283</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="21"/>
@@ -5707,17 +7475,17 @@
       <c r="U9" s="24"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="34.15" customHeight="1">
+    <row r="10" spans="1:22" ht="34.25" customHeight="1">
       <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>283</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="6" t="s">
@@ -5765,17 +7533,17 @@
       <c r="U10" s="24"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="34.15" customHeight="1">
+    <row r="11" spans="1:22" ht="34.25" customHeight="1">
       <c r="A11" s="25"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>283</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="6" t="s">
@@ -5823,14 +7591,14 @@
       <c r="U11" s="24"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="34.15" customHeight="1">
+    <row r="12" spans="1:22" ht="34.25" customHeight="1">
       <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>283</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="21"/>
@@ -5879,14 +7647,14 @@
       <c r="U12" s="24"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="34.15" customHeight="1">
+    <row r="13" spans="1:22" ht="34.25" customHeight="1">
       <c r="A13" s="25"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>283</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -5909,14 +7677,14 @@
       <c r="U13" s="24"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="34.15" customHeight="1">
+    <row r="14" spans="1:22" ht="34.25" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>283</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="21"/>
@@ -5967,17 +7735,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5985,7 +7753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:S51"/>
   <sheetViews>
@@ -5993,75 +7761,75 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.08203125" customWidth="1"/>
-    <col min="5" max="5" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="108.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.08203125" customWidth="1"/>
-    <col min="9" max="9" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
     <col min="17" max="17" width="107.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.08203125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B2" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="42" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="R2" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.15" customHeight="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+    <row r="3" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="7" t="s">
         <v>107</v>
       </c>
@@ -6072,10 +7840,10 @@
         <v>114</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>95</v>
@@ -6089,22 +7857,22 @@
       <c r="P3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.15" customHeight="1">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="21"/>
       <c r="G4" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>113</v>
@@ -6139,18 +7907,18 @@
       <c r="R4" s="23"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="34.15" customHeight="1">
+    <row r="5" spans="2:19" ht="34.25" customHeight="1">
       <c r="B5" s="21"/>
       <c r="C5" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="21"/>
       <c r="G5" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>113</v>
@@ -6188,15 +7956,15 @@
     <row r="6" spans="2:19" ht="34" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="21"/>
       <c r="G6" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>113</v>
@@ -6234,17 +8002,17 @@
     <row r="7" spans="2:19" ht="34" customHeight="1">
       <c r="B7" s="21"/>
       <c r="C7" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>208</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>113</v>
@@ -6282,15 +8050,15 @@
     <row r="8" spans="2:19" ht="34" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="21"/>
       <c r="G8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>113</v>
@@ -6328,15 +8096,15 @@
     <row r="9" spans="2:19" ht="34" customHeight="1">
       <c r="B9" s="21"/>
       <c r="C9" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>113</v>
@@ -6374,15 +8142,15 @@
     <row r="10" spans="2:19" ht="34" customHeight="1">
       <c r="B10" s="21"/>
       <c r="C10" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="21"/>
       <c r="G10" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>113</v>
@@ -6420,15 +8188,15 @@
     <row r="11" spans="2:19" ht="34" customHeight="1">
       <c r="B11" s="21"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="21"/>
       <c r="G11" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>117</v>
@@ -6466,15 +8234,15 @@
     <row r="12" spans="2:19" ht="34" customHeight="1">
       <c r="B12" s="21"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="21"/>
       <c r="G12" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>117</v>
@@ -6512,17 +8280,17 @@
     <row r="13" spans="2:19" ht="34" customHeight="1">
       <c r="B13" s="21"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>117</v>
@@ -6560,15 +8328,15 @@
     <row r="14" spans="2:19" ht="34" customHeight="1">
       <c r="B14" s="21"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="21"/>
       <c r="G14" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>117</v>
@@ -6606,15 +8374,15 @@
     <row r="15" spans="2:19" ht="34" customHeight="1">
       <c r="B15" s="21"/>
       <c r="C15" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="21"/>
       <c r="G15" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>117</v>
@@ -6649,18 +8417,18 @@
       <c r="R15" s="24"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="2:19" ht="34.15" customHeight="1">
+    <row r="16" spans="2:19" ht="34.25" customHeight="1">
       <c r="B16" s="21"/>
       <c r="C16" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="21"/>
       <c r="G16" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>117</v>
@@ -6695,18 +8463,18 @@
       <c r="R16" s="24"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="2:19" ht="34.15" customHeight="1">
+    <row r="17" spans="2:19" ht="34.25" customHeight="1">
       <c r="B17" s="21"/>
       <c r="C17" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21"/>
       <c r="G17" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>126</v>
@@ -6721,7 +8489,7 @@
         <v>128</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>123</v>
@@ -6736,23 +8504,23 @@
         <v>17</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R17" s="23"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="2:19" ht="34.15" customHeight="1">
+    <row r="18" spans="2:19" ht="34.25" customHeight="1">
       <c r="B18" s="21"/>
       <c r="C18" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="21"/>
       <c r="G18" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>126</v>
@@ -6767,7 +8535,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>123</v>
@@ -6787,18 +8555,18 @@
       <c r="R18" s="23"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="2:19" ht="34.15" customHeight="1">
+    <row r="19" spans="2:19" ht="34.25" customHeight="1">
       <c r="B19" s="21"/>
       <c r="C19" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="21"/>
       <c r="G19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>126</v>
@@ -6810,7 +8578,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>128</v>
@@ -6828,23 +8596,23 @@
         <v>17</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R19" s="23"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="2:19" ht="34.15" customHeight="1">
+    <row r="20" spans="2:19" ht="34.25" customHeight="1">
       <c r="B20" s="21"/>
       <c r="C20" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21"/>
       <c r="G20" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>126</v>
@@ -6859,7 +8627,7 @@
         <v>129</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>123</v>
@@ -6874,23 +8642,23 @@
         <v>17</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R20" s="23"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="2:19" ht="34.15" customHeight="1">
+    <row r="21" spans="2:19" ht="34.25" customHeight="1">
       <c r="B21" s="21"/>
       <c r="C21" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21"/>
       <c r="G21" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>136</v>
@@ -6905,7 +8673,7 @@
         <v>128</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>123</v>
@@ -6920,23 +8688,23 @@
         <v>17</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R21" s="23"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="2:19" ht="34.15" customHeight="1">
+    <row r="22" spans="2:19" ht="34.25" customHeight="1">
       <c r="B22" s="21"/>
       <c r="C22" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21"/>
       <c r="G22" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>136</v>
@@ -6951,7 +8719,7 @@
         <v>128</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>123</v>
@@ -6971,18 +8739,18 @@
       <c r="R22" s="23"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="2:19" ht="34.15" customHeight="1">
+    <row r="23" spans="2:19" ht="34.25" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="21"/>
       <c r="G23" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>136</v>
@@ -6994,7 +8762,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>128</v>
@@ -7012,23 +8780,23 @@
         <v>17</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R23" s="23"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="2:19" ht="34.15" customHeight="1">
+    <row r="24" spans="2:19" ht="34.25" customHeight="1">
       <c r="B24" s="21"/>
       <c r="C24" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="21"/>
       <c r="G24" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>127</v>
@@ -7043,7 +8811,7 @@
         <v>129</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>123</v>
@@ -7058,23 +8826,23 @@
         <v>17</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R24" s="23"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="2:19" ht="34.15" customHeight="1">
+    <row r="25" spans="2:19" ht="34.25" customHeight="1">
       <c r="B25" s="21"/>
       <c r="C25" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="21"/>
       <c r="G25" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>106</v>
@@ -7089,7 +8857,7 @@
         <v>124</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>123</v>
@@ -7104,23 +8872,23 @@
         <v>17</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R25" s="23"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="2:19" ht="34.15" customHeight="1">
+    <row r="26" spans="2:19" ht="34.25" customHeight="1">
       <c r="B26" s="21"/>
       <c r="C26" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="21"/>
       <c r="G26" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>106</v>
@@ -7155,18 +8923,18 @@
       <c r="R26" s="23"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="2:19" ht="34.15" customHeight="1">
+    <row r="27" spans="2:19" ht="34.25" customHeight="1">
       <c r="B27" s="21"/>
       <c r="C27" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="21"/>
       <c r="G27" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>106</v>
@@ -7178,7 +8946,7 @@
         <v>17</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>124</v>
@@ -7196,23 +8964,23 @@
         <v>17</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R27" s="23"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="2:19" ht="34.15" customHeight="1">
+    <row r="28" spans="2:19" ht="34.25" customHeight="1">
       <c r="B28" s="21"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="21"/>
       <c r="G28" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>106</v>
@@ -7227,7 +8995,7 @@
         <v>125</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>123</v>
@@ -7242,23 +9010,23 @@
         <v>17</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R28" s="23"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="2:19" ht="34.15" customHeight="1">
+    <row r="29" spans="2:19" ht="34.25" customHeight="1">
       <c r="B29" s="21"/>
       <c r="C29" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="21"/>
       <c r="G29" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>137</v>
@@ -7273,7 +9041,7 @@
         <v>131</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>123</v>
@@ -7288,23 +9056,23 @@
         <v>17</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R29" s="23"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="2:19" ht="34.15" customHeight="1">
+    <row r="30" spans="2:19" ht="34.25" customHeight="1">
       <c r="B30" s="21"/>
       <c r="C30" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="21"/>
       <c r="G30" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>137</v>
@@ -7339,18 +9107,18 @@
       <c r="R30" s="23"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="2:19" ht="34.15" customHeight="1">
+    <row r="31" spans="2:19" ht="34.25" customHeight="1">
       <c r="B31" s="21"/>
       <c r="C31" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="21"/>
       <c r="G31" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>137</v>
@@ -7362,7 +9130,7 @@
         <v>17</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>131</v>
@@ -7380,23 +9148,23 @@
         <v>17</v>
       </c>
       <c r="Q31" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R31" s="23"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="2:19" ht="34.15" customHeight="1">
+    <row r="32" spans="2:19" ht="34.25" customHeight="1">
       <c r="B32" s="21"/>
       <c r="C32" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="21"/>
       <c r="G32" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>130</v>
@@ -7411,7 +9179,7 @@
         <v>132</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>123</v>
@@ -7426,23 +9194,23 @@
         <v>17</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R32" s="23"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="2:19" ht="34.15" customHeight="1">
+    <row r="33" spans="2:19" ht="34.25" customHeight="1">
       <c r="B33" s="21"/>
       <c r="C33" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="21"/>
       <c r="G33" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>138</v>
@@ -7457,7 +9225,7 @@
         <v>131</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>123</v>
@@ -7472,23 +9240,23 @@
         <v>17</v>
       </c>
       <c r="Q33" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R33" s="23"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="2:19" ht="34.15" customHeight="1">
+    <row r="34" spans="2:19" ht="34.25" customHeight="1">
       <c r="B34" s="21"/>
       <c r="C34" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="21"/>
       <c r="G34" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>138</v>
@@ -7523,18 +9291,18 @@
       <c r="R34" s="23"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="2:19" ht="34.15" customHeight="1">
+    <row r="35" spans="2:19" ht="34.25" customHeight="1">
       <c r="B35" s="21"/>
       <c r="C35" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="21"/>
       <c r="G35" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>138</v>
@@ -7546,7 +9314,7 @@
         <v>17</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>131</v>
@@ -7564,23 +9332,23 @@
         <v>17</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R35" s="23"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="2:19" ht="34.15" customHeight="1">
+    <row r="36" spans="2:19" ht="34.25" customHeight="1">
       <c r="B36" s="21"/>
       <c r="C36" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="21"/>
       <c r="G36" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>133</v>
@@ -7595,7 +9363,7 @@
         <v>132</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>123</v>
@@ -7610,23 +9378,23 @@
         <v>17</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R36" s="23"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="2:19" ht="34.15" customHeight="1">
+    <row r="37" spans="2:19" ht="34.25" customHeight="1">
       <c r="B37" s="21"/>
       <c r="C37" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="21"/>
       <c r="G37" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>139</v>
@@ -7641,7 +9409,7 @@
         <v>131</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>123</v>
@@ -7656,23 +9424,23 @@
         <v>17</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R37" s="23"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="2:19" ht="34.15" customHeight="1">
+    <row r="38" spans="2:19" ht="34.25" customHeight="1">
       <c r="B38" s="21"/>
       <c r="C38" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="21"/>
       <c r="G38" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>139</v>
@@ -7707,18 +9475,18 @@
       <c r="R38" s="23"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="2:19" ht="34.15" customHeight="1">
+    <row r="39" spans="2:19" ht="34.25" customHeight="1">
       <c r="B39" s="21"/>
       <c r="C39" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="21"/>
       <c r="G39" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>139</v>
@@ -7730,7 +9498,7 @@
         <v>17</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>131</v>
@@ -7748,23 +9516,23 @@
         <v>17</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R39" s="23"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="2:19" ht="34.15" customHeight="1">
+    <row r="40" spans="2:19" ht="34.25" customHeight="1">
       <c r="B40" s="21"/>
       <c r="C40" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="21"/>
       <c r="G40" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>134</v>
@@ -7779,7 +9547,7 @@
         <v>132</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>123</v>
@@ -7794,23 +9562,23 @@
         <v>17</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R40" s="23"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="2:19" ht="34.15" customHeight="1">
+    <row r="41" spans="2:19" ht="34.25" customHeight="1">
       <c r="B41" s="21"/>
       <c r="C41" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="21"/>
       <c r="G41" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>135</v>
@@ -7825,7 +9593,7 @@
         <v>131</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>123</v>
@@ -7840,23 +9608,23 @@
         <v>17</v>
       </c>
       <c r="Q41" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R41" s="23"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="2:19" ht="34.15" customHeight="1">
+    <row r="42" spans="2:19" ht="34.25" customHeight="1">
       <c r="B42" s="21"/>
       <c r="C42" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="21"/>
       <c r="G42" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>135</v>
@@ -7891,18 +9659,18 @@
       <c r="R42" s="23"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="2:19" ht="34.15" customHeight="1">
+    <row r="43" spans="2:19" ht="34.25" customHeight="1">
       <c r="B43" s="21"/>
       <c r="C43" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="21"/>
       <c r="G43" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>135</v>
@@ -7914,7 +9682,7 @@
         <v>17</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>131</v>
@@ -7932,23 +9700,23 @@
         <v>17</v>
       </c>
       <c r="Q43" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R43" s="23"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="2:19" ht="34.15" customHeight="1">
+    <row r="44" spans="2:19" ht="34.25" customHeight="1">
       <c r="B44" s="21"/>
       <c r="C44" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="21"/>
       <c r="G44" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>135</v>
@@ -7963,7 +9731,7 @@
         <v>132</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>123</v>
@@ -7978,23 +9746,23 @@
         <v>17</v>
       </c>
       <c r="Q44" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R44" s="23"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="2:19" ht="34.15" customHeight="1">
+    <row r="45" spans="2:19" ht="34.25" customHeight="1">
       <c r="B45" s="21"/>
       <c r="C45" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="21"/>
       <c r="G45" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>142</v>
@@ -8009,7 +9777,7 @@
         <v>140</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>123</v>
@@ -8024,23 +9792,23 @@
         <v>17</v>
       </c>
       <c r="Q45" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R45" s="23"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="2:19" ht="34.15" customHeight="1">
+    <row r="46" spans="2:19" ht="34.25" customHeight="1">
       <c r="B46" s="21"/>
       <c r="C46" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="21"/>
       <c r="G46" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>142</v>
@@ -8075,18 +9843,18 @@
       <c r="R46" s="23"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="2:19" ht="34.15" customHeight="1">
+    <row r="47" spans="2:19" ht="34.25" customHeight="1">
       <c r="B47" s="21"/>
       <c r="C47" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="21"/>
       <c r="G47" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>142</v>
@@ -8098,7 +9866,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>140</v>
@@ -8116,23 +9884,23 @@
         <v>17</v>
       </c>
       <c r="Q47" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R47" s="23"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="2:19" ht="34.15" customHeight="1">
+    <row r="48" spans="2:19" ht="34.25" customHeight="1">
       <c r="B48" s="21"/>
       <c r="C48" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="21"/>
       <c r="G48" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>142</v>
@@ -8147,7 +9915,7 @@
         <v>141</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>123</v>
@@ -8162,7 +9930,7 @@
         <v>17</v>
       </c>
       <c r="Q48" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R48" s="23"/>
       <c r="S48" s="3"/>
@@ -8170,17 +9938,17 @@
     <row r="49" spans="2:19" ht="34" customHeight="1">
       <c r="B49" s="21"/>
       <c r="C49" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>106</v>
@@ -8210,7 +9978,7 @@
         <v>18</v>
       </c>
       <c r="Q49" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R49" s="24"/>
       <c r="S49" s="3"/>
@@ -8218,15 +9986,15 @@
     <row r="50" spans="2:19" ht="34" customHeight="1">
       <c r="B50" s="21"/>
       <c r="C50" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="21"/>
       <c r="G50" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>106</v>
@@ -8264,15 +10032,15 @@
     <row r="51" spans="2:19" ht="34" customHeight="1">
       <c r="B51" s="21"/>
       <c r="C51" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="21"/>
       <c r="G51" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>106</v>

--- a/Document/3_Test Case/Test case 양식 맞춰서.xlsx
+++ b/Document/3_Test Case/Test case 양식 맞춰서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC831B15-8B6F-C445-ADAF-921C8F6307B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D9CEB-65D3-4274-98BF-703E2D053340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1 일부" sheetId="14" r:id="rId1"/>
@@ -1659,7 +1659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1739,6 +1739,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1763,9 +1769,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1774,6 +1777,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1790,15 +1796,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{987B8334-A4AC-46AB-BB4B-C8D7EA545DEC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2107,7 +2110,7 @@
       <selection activeCell="R4" sqref="R4:R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -2123,46 +2126,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.25" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="37" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.25" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="8" t="s">
         <v>179</v>
       </c>
@@ -2202,9 +2205,9 @@
       <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="38"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="2:20" ht="34.25" customHeight="1">
       <c r="B4" s="18"/>
@@ -2598,7 +2601,7 @@
       <c r="S11" s="17"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" ht="18">
+    <row r="12" spans="2:20">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="6" t="s">
@@ -2647,7 +2650,7 @@
       <c r="S12" s="17"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" ht="18">
+    <row r="13" spans="2:20">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="6" t="s">
@@ -2696,7 +2699,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" ht="18">
+    <row r="14" spans="2:20">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
@@ -2745,7 +2748,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" ht="18">
+    <row r="15" spans="2:20">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="32" t="s">
@@ -2827,7 +2830,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" ht="18">
+    <row r="17" spans="2:20">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="32" t="s">
@@ -2868,7 +2871,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" ht="18">
+    <row r="18" spans="2:20">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="32" t="s">
@@ -2909,7 +2912,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="18">
+    <row r="19" spans="2:20">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="32" t="s">
@@ -2950,7 +2953,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" ht="18">
+    <row r="20" spans="2:20">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="32" t="s">
@@ -2991,7 +2994,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" ht="18">
+    <row r="21" spans="2:20">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="32" t="s">
@@ -3032,7 +3035,7 @@
       <c r="S21" s="17"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" ht="18">
+    <row r="22" spans="2:20">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="32" t="s">
@@ -3073,7 +3076,7 @@
       <c r="S22" s="17"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" ht="18">
+    <row r="23" spans="2:20">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="32" t="s">
@@ -3114,7 +3117,7 @@
       <c r="S23" s="17"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="18">
+    <row r="24" spans="2:20">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="32" t="s">
@@ -3155,7 +3158,7 @@
       <c r="S24" s="17"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" ht="18">
+    <row r="25" spans="2:20">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="s">
@@ -3206,7 +3209,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20" ht="18">
+    <row r="26" spans="2:20">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
@@ -3257,7 +3260,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="2:20" ht="18">
+    <row r="27" spans="2:20">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
@@ -3308,7 +3311,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="2:20" ht="18">
+    <row r="28" spans="2:20">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
@@ -3359,7 +3362,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="2:20" ht="18">
+    <row r="29" spans="2:20">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="s">
@@ -3410,7 +3413,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="2:20" ht="18">
+    <row r="30" spans="2:20">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="s">
@@ -3461,7 +3464,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="2:20" ht="18">
+    <row r="31" spans="2:20">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
@@ -3512,7 +3515,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="2:20" ht="18">
+    <row r="32" spans="2:20">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="s">
@@ -3584,11 +3587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BB10A5-8789-3C4E-B05D-AC87D7B435BB}">
   <dimension ref="B2:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="L19" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
@@ -3612,58 +3615,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="47" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="48" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="8" t="s">
         <v>373</v>
       </c>
@@ -3703,16 +3706,16 @@
       <c r="T3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="38"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="40"/>
     </row>
     <row r="4" spans="2:23" ht="34.25" customHeight="1">
       <c r="B4" s="21"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="38" t="s">
         <v>377</v>
       </c>
       <c r="E4" s="22"/>
@@ -3765,13 +3768,13 @@
     </row>
     <row r="5" spans="2:23" ht="34.25" customHeight="1">
       <c r="B5" s="21"/>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="37" t="s">
         <v>382</v>
       </c>
       <c r="F5" s="21"/>
@@ -3823,13 +3826,13 @@
     </row>
     <row r="6" spans="2:23" ht="34" customHeight="1">
       <c r="B6" s="21"/>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="37" t="s">
         <v>383</v>
       </c>
       <c r="F6" s="21"/>
@@ -3881,13 +3884,13 @@
     </row>
     <row r="7" spans="2:23" ht="34" customHeight="1">
       <c r="B7" s="21"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="37" t="s">
         <v>384</v>
       </c>
       <c r="F7" s="21"/>
@@ -3939,13 +3942,13 @@
     </row>
     <row r="8" spans="2:23" ht="34" customHeight="1">
       <c r="B8" s="21"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="38" t="s">
         <v>384</v>
       </c>
       <c r="F8" s="21"/>
@@ -3997,10 +4000,10 @@
     </row>
     <row r="9" spans="2:23" ht="34" customHeight="1">
       <c r="B9" s="21"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="38" t="s">
         <v>377</v>
       </c>
       <c r="E9" s="22"/>
@@ -4053,13 +4056,13 @@
     </row>
     <row r="10" spans="2:23" ht="34" customHeight="1">
       <c r="B10" s="21"/>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="37" t="s">
         <v>385</v>
       </c>
       <c r="F10" s="21"/>
@@ -4111,10 +4114,10 @@
     </row>
     <row r="11" spans="2:23" ht="34" customHeight="1">
       <c r="B11" s="21"/>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="38" t="s">
         <v>377</v>
       </c>
       <c r="E11" s="20"/>
@@ -4167,10 +4170,10 @@
     </row>
     <row r="12" spans="2:23" ht="34" customHeight="1">
       <c r="B12" s="21"/>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E12" s="20"/>
@@ -4223,10 +4226,10 @@
     </row>
     <row r="13" spans="2:23" ht="34" customHeight="1">
       <c r="B13" s="21"/>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E13" s="20"/>
@@ -4279,10 +4282,10 @@
     </row>
     <row r="14" spans="2:23" ht="34" customHeight="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E14" s="20"/>
@@ -4335,10 +4338,10 @@
     </row>
     <row r="15" spans="2:23" ht="34" customHeight="1">
       <c r="B15" s="21"/>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E15" s="20"/>
@@ -4383,10 +4386,10 @@
     </row>
     <row r="16" spans="2:23" ht="34" customHeight="1">
       <c r="B16" s="21"/>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E16" s="20"/>
@@ -4431,10 +4434,10 @@
     </row>
     <row r="17" spans="2:23" ht="34" customHeight="1">
       <c r="B17" s="21"/>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E17" s="20"/>
@@ -4479,10 +4482,10 @@
     </row>
     <row r="18" spans="2:23" ht="34" customHeight="1">
       <c r="B18" s="21"/>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E18" s="20"/>
@@ -4527,10 +4530,10 @@
     </row>
     <row r="19" spans="2:23" ht="34" customHeight="1">
       <c r="B19" s="21"/>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E19" s="20"/>
@@ -4575,10 +4578,10 @@
     </row>
     <row r="20" spans="2:23" ht="34" customHeight="1">
       <c r="B20" s="21"/>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E20" s="20"/>
@@ -4623,10 +4626,10 @@
     </row>
     <row r="21" spans="2:23" ht="34" customHeight="1">
       <c r="B21" s="21"/>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="37" t="s">
         <v>379</v>
       </c>
       <c r="E21" s="20"/>
@@ -4671,10 +4674,10 @@
     </row>
     <row r="22" spans="2:23" ht="34" customHeight="1">
       <c r="B22" s="21"/>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="56" t="s">
         <v>379</v>
       </c>
       <c r="E22" s="20"/>
@@ -4719,10 +4722,10 @@
     </row>
     <row r="23" spans="2:23" ht="34" customHeight="1">
       <c r="B23" s="21"/>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="37" t="s">
         <v>379</v>
       </c>
       <c r="E23" s="20"/>
@@ -4767,10 +4770,10 @@
     </row>
     <row r="24" spans="2:23" ht="34.25" customHeight="1">
       <c r="B24" s="21"/>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="56" t="s">
         <v>379</v>
       </c>
       <c r="E24" s="22"/>
@@ -4815,10 +4818,10 @@
     </row>
     <row r="25" spans="2:23" ht="34.25" customHeight="1">
       <c r="B25" s="21"/>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="37" t="s">
         <v>379</v>
       </c>
       <c r="E25" s="20"/>
@@ -4873,10 +4876,10 @@
     </row>
     <row r="26" spans="2:23" ht="34" customHeight="1">
       <c r="B26" s="21"/>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="56" t="s">
         <v>379</v>
       </c>
       <c r="E26" s="20"/>
@@ -4931,10 +4934,10 @@
     </row>
     <row r="27" spans="2:23" ht="34" customHeight="1">
       <c r="B27" s="21"/>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="37" t="s">
         <v>379</v>
       </c>
       <c r="E27" s="20"/>
@@ -4989,10 +4992,10 @@
     </row>
     <row r="28" spans="2:23" ht="34" customHeight="1">
       <c r="B28" s="21"/>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="56" t="s">
         <v>379</v>
       </c>
       <c r="E28" s="20"/>
@@ -5047,10 +5050,10 @@
     </row>
     <row r="29" spans="2:23" ht="34" customHeight="1">
       <c r="B29" s="21"/>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="37" t="s">
         <v>379</v>
       </c>
       <c r="E29" s="22"/>
@@ -5105,10 +5108,10 @@
     </row>
     <row r="30" spans="2:23" ht="34" customHeight="1">
       <c r="B30" s="21"/>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="56" t="s">
         <v>379</v>
       </c>
       <c r="E30" s="20"/>
@@ -5163,10 +5166,10 @@
     </row>
     <row r="31" spans="2:23" ht="34" customHeight="1">
       <c r="B31" s="21"/>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="56" t="s">
         <v>379</v>
       </c>
       <c r="E31" s="20"/>
@@ -5221,10 +5224,10 @@
     </row>
     <row r="32" spans="2:23" ht="34" customHeight="1">
       <c r="B32" s="21"/>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="56" t="s">
         <v>379</v>
       </c>
       <c r="E32" s="22"/>
@@ -5279,17 +5282,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
@@ -5302,7 +5305,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
@@ -5321,54 +5324,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="47" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="48" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="8" t="s">
         <v>107</v>
       </c>
@@ -5396,9 +5399,9 @@
       <c r="P3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="38"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="21"/>
@@ -5818,17 +5821,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5844,7 +5847,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
@@ -5867,57 +5870,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="47" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="48" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -5954,9 +5957,9 @@
       <c r="S3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
     </row>
     <row r="4" spans="2:22" ht="34.25" customHeight="1">
       <c r="B4" s="21"/>
@@ -6973,17 +6976,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -6997,7 +7000,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -7045,58 +7048,58 @@
     </row>
     <row r="2" spans="1:22" ht="34.25" customHeight="1">
       <c r="A2" s="25"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="47" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="48" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="34.25" customHeight="1">
       <c r="A3" s="25"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -7133,9 +7136,9 @@
       <c r="S3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
     </row>
     <row r="4" spans="1:22" ht="34.25" customHeight="1">
       <c r="A4" s="25"/>
@@ -7735,17 +7738,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -7761,7 +7764,7 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
@@ -7782,54 +7785,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="47" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="48" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="7" t="s">
         <v>107</v>
       </c>
@@ -7857,9 +7860,9 @@
       <c r="P3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="21"/>

--- a/Document/3_Test Case/Test case 양식 맞춰서.xlsx
+++ b/Document/3_Test Case/Test case 양식 맞춰서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D9CEB-65D3-4274-98BF-703E2D053340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624A425-2D90-6E41-A600-AB27DD205D45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1 일부" sheetId="14" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="387">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -1500,6 +1500,9 @@
   </si>
   <si>
     <t>추천할 장소가 없는 경우</t>
+  </si>
+  <si>
+    <t>적합성 검사에 통과하지 못할 경우</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1769,14 +1772,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1796,12 +1799,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{987B8334-A4AC-46AB-BB4B-C8D7EA545DEC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2110,7 +2110,7 @@
       <selection activeCell="R4" sqref="R4:R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -2601,7 +2601,7 @@
       <c r="S11" s="17"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" ht="18">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="6" t="s">
@@ -2650,7 +2650,7 @@
       <c r="S12" s="17"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" ht="18">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="6" t="s">
@@ -2699,7 +2699,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" ht="18">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
@@ -2748,7 +2748,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" ht="18">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="32" t="s">
@@ -2830,7 +2830,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" ht="18">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="32" t="s">
@@ -2871,7 +2871,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" ht="18">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="32" t="s">
@@ -2912,7 +2912,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" ht="18">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="32" t="s">
@@ -2953,7 +2953,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" ht="18">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="32" t="s">
@@ -2994,7 +2994,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" ht="18">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="32" t="s">
@@ -3035,7 +3035,7 @@
       <c r="S21" s="17"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" ht="18">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="32" t="s">
@@ -3076,7 +3076,7 @@
       <c r="S22" s="17"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" ht="18">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="32" t="s">
@@ -3117,7 +3117,7 @@
       <c r="S23" s="17"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" ht="18">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="32" t="s">
@@ -3158,7 +3158,7 @@
       <c r="S24" s="17"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" ht="18">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="s">
@@ -3209,7 +3209,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" ht="18">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
@@ -3260,7 +3260,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" ht="18">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
@@ -3311,7 +3311,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" ht="18">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
@@ -3362,7 +3362,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" ht="18">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="s">
@@ -3413,7 +3413,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" ht="18">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="s">
@@ -3464,7 +3464,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" ht="18">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
@@ -3515,7 +3515,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" ht="18">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="s">
@@ -3587,11 +3587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BB10A5-8789-3C4E-B05D-AC87D7B435BB}">
   <dimension ref="B2:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L19" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
@@ -3615,30 +3615,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>57</v>
       </c>
       <c r="I2" s="45"/>
       <c r="J2" s="45"/>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="L2" s="46"/>
@@ -3650,7 +3650,7 @@
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
       <c r="T2" s="46"/>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="48" t="s">
         <v>204</v>
       </c>
       <c r="V2" s="50" t="s">
@@ -4677,10 +4677,12 @@
       <c r="C22" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="38" t="s">
+        <v>386</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="32" t="s">
         <v>365</v>
@@ -4773,10 +4775,12 @@
       <c r="C24" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="38" t="s">
+        <v>386</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="32" t="s">
         <v>365</v>
@@ -4879,10 +4883,12 @@
       <c r="C26" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="38" t="s">
+        <v>386</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="6" t="s">
         <v>370</v>
@@ -4995,10 +5001,12 @@
       <c r="C28" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="38" t="s">
+        <v>386</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="6" t="s">
         <v>371</v>
@@ -5111,10 +5119,12 @@
       <c r="C30" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="38" t="s">
+        <v>386</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="6" t="s">
         <v>175</v>
@@ -5169,10 +5179,12 @@
       <c r="C31" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="38" t="s">
+        <v>386</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="6" t="s">
         <v>176</v>
@@ -5227,10 +5239,12 @@
       <c r="C32" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="38" t="s">
+        <v>386</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="6" t="s">
         <v>177</v>
@@ -5282,17 +5296,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
   </mergeCells>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
@@ -5305,7 +5319,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
@@ -5324,38 +5338,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="49" t="s">
         <v>57</v>
       </c>
       <c r="I2" s="45"/>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="48" t="s">
         <v>204</v>
       </c>
       <c r="R2" s="50" t="s">
@@ -5821,17 +5835,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5847,7 +5861,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
@@ -5870,19 +5884,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
       <c r="G2" s="46" t="s">
@@ -5894,7 +5908,7 @@
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="M2" s="46"/>
@@ -5904,10 +5918,10 @@
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="48" t="s">
         <v>205</v>
       </c>
       <c r="V2" s="39" t="s">
@@ -6976,17 +6990,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -7000,7 +7014,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -7048,19 +7062,19 @@
     </row>
     <row r="2" spans="1:22" ht="34.25" customHeight="1">
       <c r="A2" s="25"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
       <c r="G2" s="46" t="s">
@@ -7071,7 +7085,7 @@
       </c>
       <c r="I2" s="54"/>
       <c r="J2" s="52"/>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="L2" s="46"/>
@@ -7082,10 +7096,10 @@
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="48" t="s">
         <v>205</v>
       </c>
       <c r="V2" s="39" t="s">
@@ -7738,17 +7752,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -7764,7 +7778,7 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
@@ -7785,19 +7799,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>202</v>
       </c>
       <c r="G2" s="46" t="s">
@@ -7810,16 +7824,16 @@
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
       <c r="L2" s="55"/>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="48" t="s">
         <v>205</v>
       </c>
       <c r="S2" s="39" t="s">

--- a/Document/3_Test Case/Test case 양식 맞춰서.xlsx
+++ b/Document/3_Test Case/Test case 양식 맞춰서.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\서강대학교 4-2 (2019-2)\융합소프트웨어종합설계\@Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624A425-2D90-6E41-A600-AB27DD205D45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C8024-A581-436A-A853-107FACB9F923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1 일부" sheetId="14" r:id="rId1"/>
-    <sheet name="Test Case_Result_UC1" sheetId="15" r:id="rId2"/>
-    <sheet name="Test Case_Result_UC2" sheetId="13" r:id="rId3"/>
-    <sheet name="Test Case_Result_UC3" sheetId="7" r:id="rId4"/>
-    <sheet name="Test Case_Result_UC4" sheetId="9" r:id="rId5"/>
-    <sheet name="Test Case_Result_UC5" sheetId="12" r:id="rId6"/>
+    <sheet name="Test Case_Result_UC2" sheetId="13" r:id="rId2"/>
+    <sheet name="Test Case_Result_UC3" sheetId="7" r:id="rId3"/>
+    <sheet name="Test Case_Result_UC4" sheetId="9" r:id="rId4"/>
+    <sheet name="Test Case_Result_UC5" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="373">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -752,6 +751,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>해당 장소에 존재하는 약품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>약품 별칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1458,51 +1461,6 @@
   <si>
     <t>장소 적합성 확인 - 알칼리토 금속 추가시 해당 장소에 할로겐이 존재할 경우</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lab 생성</t>
-  </si>
-  <si>
-    <t>장소</t>
-  </si>
-  <si>
-    <t>해당 장소에 존재하는 약품</t>
-  </si>
-  <si>
-    <t>해당 장소에 존재하는 약품 별칭</t>
-  </si>
-  <si>
-    <t>my Lab 약품 보관 장소 관리</t>
-  </si>
-  <si>
-    <t>약품 추가 및 장소 선택</t>
-  </si>
-  <si>
-    <t>약품이 보관될 장소 추천</t>
-  </si>
-  <si>
-    <t>장소 적합성 확인</t>
-  </si>
-  <si>
-    <t>약품 유효기간</t>
-  </si>
-  <si>
-    <t>장소 수정 버튼</t>
-  </si>
-  <si>
-    <t>약품 이름을 잘못 입력한 경우</t>
-  </si>
-  <si>
-    <t>약품 별칭이 이미 존재하는 경우</t>
-  </si>
-  <si>
-    <t>약품 별칭을 입력 하지 않는 경우</t>
-  </si>
-  <si>
-    <t>추천할 장소가 없는 경우</t>
-  </si>
-  <si>
-    <t>적합성 검사에 통과하지 못할 경우</t>
   </si>
 </sst>
 </file>
@@ -1510,9 +1468,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1551,24 +1509,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="함초롬바탕"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1662,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1711,43 +1658,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1766,11 +1676,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,19 +1694,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1799,9 +1704,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{987B8334-A4AC-46AB-BB4B-C8D7EA545DEC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2106,74 +2042,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F218289-417F-4BB3-B14A-D058BACC0645}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="L2" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.83203125" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="122.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="15" max="15" width="122.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="34.25" customHeight="1">
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="39" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="34.25" customHeight="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+    <row r="3" spans="2:20" ht="34.15" customHeight="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="8" t="s">
         <v>179</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>374</v>
+        <v>180</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>178</v>
@@ -2182,47 +2116,47 @@
         <v>33</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="40"/>
-    </row>
-    <row r="4" spans="2:20" ht="34.25" customHeight="1">
+      <c r="R3" s="21"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.15" customHeight="1">
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="28" t="s">
-        <v>307</v>
+      <c r="D4" s="45" t="s">
+        <v>308</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>150</v>
@@ -2231,78 +2165,78 @@
         <v>18</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="34.25" customHeight="1">
+    <row r="5" spans="2:20" ht="34.15" customHeight="1">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="29" t="s">
-        <v>313</v>
+      <c r="D5" s="46" t="s">
+        <v>314</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M5" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M5" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="31" t="s">
-        <v>315</v>
+      <c r="R5" s="48" t="s">
+        <v>316</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="18"/>
@@ -2311,16 +2245,16 @@
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>150</v>
@@ -2329,29 +2263,29 @@
         <v>18</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M6" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M6" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="18"/>
@@ -2360,16 +2294,16 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>150</v>
@@ -2378,29 +2312,29 @@
         <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M7" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M7" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="18"/>
@@ -2409,16 +2343,16 @@
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>150</v>
@@ -2427,29 +2361,29 @@
         <v>18</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M8" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M8" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="18"/>
@@ -2458,16 +2392,16 @@
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>150</v>
@@ -2476,16 +2410,16 @@
         <v>18</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M9" s="30" t="s">
         <v>311</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>312</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>17</v>
@@ -2498,7 +2432,7 @@
         <v>17</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="18"/>
@@ -2507,16 +2441,16 @@
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>150</v>
@@ -2525,16 +2459,16 @@
         <v>18</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M10" s="30" t="s">
         <v>311</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>312</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>17</v>
@@ -2547,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="18"/>
@@ -2556,16 +2490,16 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>150</v>
@@ -2574,191 +2508,191 @@
         <v>18</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M11" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M11" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" ht="18">
+    <row r="12" spans="2:20">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M12" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M12" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" ht="18">
+    <row r="13" spans="2:20">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M13" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M13" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" ht="18">
+    <row r="14" spans="2:20">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M14" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M14" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" ht="18">
+    <row r="15" spans="2:20">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="32" t="s">
-        <v>346</v>
+      <c r="D15" s="49" t="s">
+        <v>347</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="32" t="s">
-        <v>347</v>
+      <c r="H15" s="49" t="s">
+        <v>348</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>18</v>
@@ -2770,21 +2704,21 @@
         <v>17</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M15" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M15" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="8"/>
-      <c r="P15" s="32" t="s">
-        <v>308</v>
+      <c r="P15" s="49" t="s">
+        <v>309</v>
       </c>
       <c r="Q15" s="8"/>
-      <c r="R15" s="33" t="s">
-        <v>348</v>
+      <c r="R15" s="50" t="s">
+        <v>349</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="18"/>
@@ -2792,14 +2726,14 @@
     <row r="16" spans="2:20" ht="18.5" customHeight="1">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="32" t="s">
-        <v>349</v>
+      <c r="D16" s="49" t="s">
+        <v>350</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="32" t="s">
-        <v>350</v>
+      <c r="H16" s="49" t="s">
+        <v>351</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>18</v>
@@ -2811,36 +2745,36 @@
         <v>17</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M16" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M16" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="8"/>
-      <c r="P16" s="32" t="s">
-        <v>308</v>
+      <c r="P16" s="49" t="s">
+        <v>309</v>
       </c>
       <c r="Q16" s="8"/>
-      <c r="R16" s="33" t="s">
-        <v>348</v>
+      <c r="R16" s="50" t="s">
+        <v>349</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" ht="18">
+    <row r="17" spans="2:20">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="32" t="s">
-        <v>351</v>
+      <c r="D17" s="49" t="s">
+        <v>352</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="32" t="s">
-        <v>352</v>
+      <c r="H17" s="49" t="s">
+        <v>353</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>18</v>
@@ -2852,36 +2786,36 @@
         <v>17</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M17" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M17" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="8"/>
-      <c r="P17" s="32" t="s">
-        <v>308</v>
+      <c r="P17" s="49" t="s">
+        <v>309</v>
       </c>
       <c r="Q17" s="8"/>
-      <c r="R17" s="33" t="s">
-        <v>353</v>
+      <c r="R17" s="50" t="s">
+        <v>354</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" ht="18">
+    <row r="18" spans="2:20">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="32" t="s">
-        <v>354</v>
+      <c r="D18" s="49" t="s">
+        <v>355</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="32" t="s">
-        <v>355</v>
+      <c r="H18" s="49" t="s">
+        <v>356</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>18</v>
@@ -2893,36 +2827,36 @@
         <v>17</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M18" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M18" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="8"/>
-      <c r="P18" s="32" t="s">
-        <v>308</v>
+      <c r="P18" s="49" t="s">
+        <v>309</v>
       </c>
       <c r="Q18" s="8"/>
-      <c r="R18" s="33" t="s">
-        <v>356</v>
+      <c r="R18" s="50" t="s">
+        <v>357</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="18">
+    <row r="19" spans="2:20">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="32" t="s">
-        <v>357</v>
+      <c r="D19" s="49" t="s">
+        <v>358</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="32" t="s">
-        <v>358</v>
+      <c r="H19" s="49" t="s">
+        <v>359</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>18</v>
@@ -2934,36 +2868,36 @@
         <v>17</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M19" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M19" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O19" s="8"/>
-      <c r="P19" s="32" t="s">
-        <v>308</v>
+      <c r="P19" s="49" t="s">
+        <v>309</v>
       </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="33" t="s">
-        <v>359</v>
+      <c r="R19" s="50" t="s">
+        <v>360</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" ht="18">
+    <row r="20" spans="2:20">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="32" t="s">
-        <v>360</v>
+      <c r="D20" s="49" t="s">
+        <v>361</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="32" t="s">
-        <v>361</v>
+      <c r="H20" s="49" t="s">
+        <v>362</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>18</v>
@@ -2975,36 +2909,36 @@
         <v>17</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M20" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M20" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="8"/>
-      <c r="P20" s="32" t="s">
-        <v>308</v>
+      <c r="P20" s="49" t="s">
+        <v>309</v>
       </c>
       <c r="Q20" s="8"/>
-      <c r="R20" s="33" t="s">
-        <v>359</v>
+      <c r="R20" s="50" t="s">
+        <v>360</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" ht="18">
+    <row r="21" spans="2:20">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="32" t="s">
-        <v>362</v>
+      <c r="D21" s="49" t="s">
+        <v>363</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="32" t="s">
-        <v>363</v>
+      <c r="H21" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>18</v>
@@ -3016,36 +2950,36 @@
         <v>17</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M21" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M21" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="32" t="s">
-        <v>328</v>
+      <c r="P21" s="49" t="s">
+        <v>329</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" ht="18">
+    <row r="22" spans="2:20">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="32" t="s">
-        <v>365</v>
+      <c r="D22" s="49" t="s">
+        <v>366</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="32" t="s">
-        <v>363</v>
+      <c r="H22" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>18</v>
@@ -3057,36 +2991,36 @@
         <v>17</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M22" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M22" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O22" s="8"/>
-      <c r="P22" s="32" t="s">
-        <v>328</v>
+      <c r="P22" s="49" t="s">
+        <v>329</v>
       </c>
       <c r="Q22" s="8"/>
-      <c r="R22" s="33" t="s">
-        <v>366</v>
+      <c r="R22" s="50" t="s">
+        <v>367</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" ht="18">
+    <row r="23" spans="2:20">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="32" t="s">
-        <v>367</v>
+      <c r="D23" s="49" t="s">
+        <v>368</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="32" t="s">
-        <v>347</v>
+      <c r="H23" s="49" t="s">
+        <v>348</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>18</v>
@@ -3098,36 +3032,36 @@
         <v>17</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M23" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M23" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O23" s="8"/>
-      <c r="P23" s="32" t="s">
-        <v>328</v>
+      <c r="P23" s="49" t="s">
+        <v>329</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="18">
+    <row r="24" spans="2:20">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="32" t="s">
-        <v>365</v>
+      <c r="D24" s="49" t="s">
+        <v>366</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="32" t="s">
-        <v>347</v>
+      <c r="H24" s="49" t="s">
+        <v>348</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>18</v>
@@ -3139,42 +3073,42 @@
         <v>17</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M24" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M24" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="8"/>
-      <c r="P24" s="32" t="s">
-        <v>328</v>
+      <c r="P24" s="49" t="s">
+        <v>329</v>
       </c>
       <c r="Q24" s="8"/>
-      <c r="R24" s="33" t="s">
-        <v>369</v>
+      <c r="R24" s="50" t="s">
+        <v>370</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" ht="18">
+    <row r="25" spans="2:20">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="s">
         <v>172</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
@@ -3186,16 +3120,16 @@
         <v>17</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M25" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M25" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>18</v>
@@ -3204,28 +3138,28 @@
         <v>17</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20" ht="18">
+    <row r="26" spans="2:20">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>18</v>
@@ -3237,16 +3171,16 @@
         <v>17</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M26" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M26" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>18</v>
@@ -3255,19 +3189,19 @@
         <v>17</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="2:20" ht="18">
+    <row r="27" spans="2:20">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
         <v>173</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>17</v>
@@ -3276,7 +3210,7 @@
         <v>17</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>18</v>
@@ -3288,16 +3222,16 @@
         <v>17</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M27" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M27" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>18</v>
@@ -3306,28 +3240,28 @@
         <v>17</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="2:20" ht="18">
+    <row r="28" spans="2:20">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>18</v>
@@ -3339,16 +3273,16 @@
         <v>17</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M28" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M28" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>18</v>
@@ -3357,19 +3291,19 @@
         <v>17</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="2:20" ht="18">
+    <row r="29" spans="2:20">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="s">
         <v>174</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>17</v>
@@ -3378,7 +3312,7 @@
         <v>17</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>18</v>
@@ -3390,16 +3324,16 @@
         <v>17</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M29" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M29" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>18</v>
@@ -3408,28 +3342,28 @@
         <v>17</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="2:20" ht="18">
+    <row r="30" spans="2:20">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="G30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>18</v>
@@ -3441,16 +3375,16 @@
         <v>17</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M30" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M30" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>18</v>
@@ -3459,28 +3393,28 @@
         <v>17</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="2:20" ht="18">
+    <row r="31" spans="2:20">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>18</v>
@@ -3492,16 +3426,16 @@
         <v>17</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M31" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M31" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>18</v>
@@ -3510,28 +3444,28 @@
         <v>17</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="2:20" ht="18">
+    <row r="32" spans="2:20">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>18</v>
@@ -3543,16 +3477,16 @@
         <v>17</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M32" s="30" t="s">
         <v>311</v>
       </c>
+      <c r="M32" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="N32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>18</v>
@@ -3561,7 +3495,7 @@
         <v>17</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="3"/>
@@ -3584,1808 +3518,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BB10A5-8789-3C4E-B05D-AC87D7B435BB}">
-  <dimension ref="B2:W32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
-    <col min="10" max="10" width="30.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
-    <col min="18" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="114" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B2" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="V2" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="W2" s="39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="40"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="40"/>
-    </row>
-    <row r="4" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="2:23" ht="34" customHeight="1">
-      <c r="B6" s="21"/>
-      <c r="C6" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="2:23" ht="34" customHeight="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="2:23" ht="34" customHeight="1">
-      <c r="B8" s="21"/>
-      <c r="C8" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="2:23" ht="34" customHeight="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="2:23" ht="34" customHeight="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="2:23" ht="34" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="2:23" ht="34" customHeight="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="2:23" ht="34" customHeight="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="2:23" ht="34" customHeight="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="2:23" ht="34" customHeight="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="2:23" ht="34" customHeight="1">
-      <c r="B16" s="21"/>
-      <c r="C16" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="2:23" ht="34" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="2:23" ht="34" customHeight="1">
-      <c r="B18" s="21"/>
-      <c r="C18" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="V18" s="5"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="2:23" ht="34" customHeight="1">
-      <c r="B19" s="21"/>
-      <c r="C19" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="V19" s="5"/>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="2:23" ht="34" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="2:23" ht="34" customHeight="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P21" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R21" s="8"/>
-      <c r="S21" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="2:23" ht="34" customHeight="1">
-      <c r="B22" s="21"/>
-      <c r="C22" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="T22" s="8"/>
-      <c r="U22" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="2:23" ht="34" customHeight="1">
-      <c r="B23" s="21"/>
-      <c r="C23" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="8"/>
-      <c r="S24" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="T24" s="8"/>
-      <c r="U24" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="V24" s="4"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B25" s="21"/>
-      <c r="C25" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="V25" s="5"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="2:23" ht="34" customHeight="1">
-      <c r="B26" s="21"/>
-      <c r="C26" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P26" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V26" s="5"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="2:23" ht="34" customHeight="1">
-      <c r="B27" s="21"/>
-      <c r="C27" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P27" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="V27" s="5"/>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="2:23" ht="34" customHeight="1">
-      <c r="B28" s="21"/>
-      <c r="C28" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P28" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V28" s="5"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="2:23" ht="34" customHeight="1">
-      <c r="B29" s="21"/>
-      <c r="C29" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P29" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="V29" s="5"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="2:23" ht="34" customHeight="1">
-      <c r="B30" s="21"/>
-      <c r="C30" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P30" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V30" s="5"/>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="2:23" ht="34" customHeight="1">
-      <c r="B31" s="21"/>
-      <c r="C31" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P31" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="V31" s="5"/>
-      <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="2:23" ht="34" customHeight="1">
-      <c r="B32" s="21"/>
-      <c r="C32" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="P32" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U32" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V32" s="5"/>
-      <c r="W32" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-  </mergeCells>
-  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:S12"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" customWidth="1"/>
-    <col min="17" max="17" width="122.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+    <col min="17" max="17" width="122.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="48" t="s">
+    <row r="2" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B2" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="48" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="R2" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="44"/>
+    <row r="3" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="8" t="s">
         <v>107</v>
       </c>
@@ -5413,20 +3617,20 @@
       <c r="P3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="40"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="Q3" s="21"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B4" s="36"/>
+      <c r="C4" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="6" t="s">
         <v>143</v>
       </c>
@@ -5463,16 +3667,16 @@
       <c r="R4" s="4"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="20" t="s">
+    <row r="5" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B5" s="36"/>
+      <c r="C5" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="6" t="s">
         <v>144</v>
       </c>
@@ -5510,15 +3714,15 @@
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="6" t="s">
         <v>155</v>
       </c>
@@ -5556,15 +3760,15 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="6" t="s">
         <v>156</v>
       </c>
@@ -5602,15 +3806,15 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="6" t="s">
         <v>147</v>
       </c>
@@ -5648,15 +3852,15 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="6" t="s">
         <v>148</v>
       </c>
@@ -5694,17 +3898,17 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="E10" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="6" t="s">
         <v>145</v>
       </c>
@@ -5742,15 +3946,15 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="6" t="s">
         <v>146</v>
       </c>
@@ -5788,15 +3992,15 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="6" t="s">
         <v>149</v>
       </c>
@@ -5853,88 +4057,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.9140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="34" customWidth="1"/>
+    <col min="9" max="9" width="29.08203125" customWidth="1"/>
+    <col min="10" max="10" width="34.08203125" customWidth="1"/>
     <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.9140625" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="79" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="21" max="21" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B2" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="48" t="s">
+    <row r="2" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B2" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="U2" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+    <row r="3" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -5971,20 +4173,20 @@
       <c r="S3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-    </row>
-    <row r="4" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B4" s="36"/>
+      <c r="C4" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
@@ -6012,10 +4214,10 @@
       <c r="O4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="44">
         <v>1234</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="44">
         <v>1234</v>
       </c>
       <c r="R4" s="10" t="s">
@@ -6027,21 +4229,21 @@
       <c r="T4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="23"/>
+      <c r="U4" s="38"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="21"/>
+    <row r="5" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B5" s="36"/>
+      <c r="C5" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="36"/>
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
@@ -6069,10 +4271,10 @@
       <c r="O5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="44">
         <v>1234</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="44">
         <v>1234</v>
       </c>
       <c r="R5" s="10" t="s">
@@ -6084,21 +4286,21 @@
       <c r="T5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="23"/>
+      <c r="U5" s="38"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="F6" s="21"/>
+    <row r="6" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B6" s="36"/>
+      <c r="C6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="36"/>
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
@@ -6126,10 +4328,10 @@
       <c r="O6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="44">
         <v>1234</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="44">
         <v>9876</v>
       </c>
       <c r="R6" s="10" t="s">
@@ -6141,19 +4343,19 @@
       <c r="T6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="23"/>
+      <c r="U6" s="38"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+    <row r="7" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B7" s="36"/>
+      <c r="C7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
@@ -6181,10 +4383,10 @@
       <c r="O7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="44">
         <v>1234</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="44">
         <v>1234</v>
       </c>
       <c r="R7" s="10" t="s">
@@ -6196,21 +4398,21 @@
       <c r="T7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="24"/>
+      <c r="U7" s="39"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="21"/>
+    <row r="8" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B8" s="36"/>
+      <c r="C8" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="36"/>
       <c r="G8" s="6" t="s">
         <v>169</v>
       </c>
@@ -6222,24 +4424,24 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="24"/>
+      <c r="U8" s="39"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
+    <row r="9" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B9" s="36"/>
+      <c r="C9" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
@@ -6261,7 +4463,7 @@
       <c r="M9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="44" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="10" t="s">
@@ -6282,21 +4484,21 @@
       <c r="T9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="23"/>
+      <c r="U9" s="38"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="21"/>
+    <row r="10" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B10" s="36"/>
+      <c r="C10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
@@ -6318,7 +4520,7 @@
       <c r="M10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="44" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="10" t="s">
@@ -6339,21 +4541,21 @@
       <c r="T10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="23"/>
+      <c r="U10" s="38"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="21"/>
+    <row r="11" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B11" s="36"/>
+      <c r="C11" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
@@ -6364,7 +4566,7 @@
         <v>48</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>17</v>
@@ -6375,7 +4577,7 @@
       <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="27" t="s">
+      <c r="N11" s="44" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="10" t="s">
@@ -6396,19 +4598,19 @@
       <c r="T11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="23"/>
+      <c r="U11" s="38"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
+    <row r="12" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B12" s="36"/>
+      <c r="C12" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
@@ -6430,7 +4632,7 @@
       <c r="M12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="36" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -6451,21 +4653,21 @@
       <c r="T12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="23"/>
+      <c r="U12" s="38"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="F13" s="21"/>
+    <row r="13" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B13" s="36"/>
+      <c r="C13" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="36"/>
       <c r="G13" s="6" t="s">
         <v>58</v>
       </c>
@@ -6479,7 +4681,7 @@
         <v>59</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>26</v>
@@ -6508,19 +4710,19 @@
       <c r="T13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="23"/>
+      <c r="U13" s="38"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21"/>
+    <row r="14" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
@@ -6548,7 +4750,7 @@
       <c r="O14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="44">
         <v>1234</v>
       </c>
       <c r="Q14" s="10" t="s">
@@ -6563,21 +4765,21 @@
       <c r="T14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="23"/>
+      <c r="U14" s="38"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15" s="21"/>
+    <row r="15" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B15" s="36"/>
+      <c r="C15" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="36"/>
       <c r="G15" s="6" t="s">
         <v>41</v>
       </c>
@@ -6620,21 +4822,21 @@
       <c r="T15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="23"/>
+      <c r="U15" s="38"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B16" s="21"/>
-      <c r="C16" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16" s="21"/>
+    <row r="16" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="36"/>
       <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
@@ -6662,7 +4864,7 @@
       <c r="O16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="44">
         <v>9876</v>
       </c>
       <c r="Q16" s="10" t="s">
@@ -6677,19 +4879,19 @@
       <c r="T16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="U16" s="23"/>
+      <c r="U16" s="38"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21"/>
+    <row r="17" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B17" s="36"/>
+      <c r="C17" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="6" t="s">
         <v>44</v>
       </c>
@@ -6717,7 +4919,7 @@
       <c r="O17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="44">
         <v>1234</v>
       </c>
       <c r="Q17" s="10" t="s">
@@ -6732,21 +4934,21 @@
       <c r="T17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="24"/>
+      <c r="U17" s="39"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B18" s="21"/>
-      <c r="C18" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="F18" s="21"/>
+    <row r="18" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B18" s="36"/>
+      <c r="C18" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="36"/>
       <c r="G18" s="6" t="s">
         <v>169</v>
       </c>
@@ -6758,24 +4960,24 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="24"/>
+      <c r="U18" s="39"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="34" customHeight="1">
-      <c r="B19" s="21"/>
-      <c r="C19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="6" t="s">
         <v>52</v>
       </c>
@@ -6786,7 +4988,7 @@
         <v>47</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>17</v>
@@ -6818,19 +5020,19 @@
       <c r="T19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U19" s="24"/>
+      <c r="U19" s="39"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21"/>
+    <row r="20" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B20" s="36"/>
+      <c r="C20" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="6" t="s">
         <v>53</v>
       </c>
@@ -6873,19 +5075,19 @@
       <c r="T20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="U20" s="24"/>
+      <c r="U20" s="39"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
+    <row r="21" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B21" s="36"/>
+      <c r="C21" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="6" t="s">
         <v>51</v>
       </c>
@@ -6928,21 +5130,21 @@
       <c r="T21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="24"/>
+      <c r="U21" s="39"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B22" s="21"/>
-      <c r="C22" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="F22" s="21"/>
+    <row r="22" spans="2:22" ht="34.15" customHeight="1">
+      <c r="B22" s="36"/>
+      <c r="C22" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="36"/>
       <c r="G22" s="6" t="s">
         <v>61</v>
       </c>
@@ -6985,7 +5187,7 @@
       <c r="T22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="24"/>
+      <c r="U22" s="39"/>
       <c r="V22" s="3"/>
     </row>
   </sheetData>
@@ -7008,112 +5210,112 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="21.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.58203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.4140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.4140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-    </row>
-    <row r="2" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="48" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+    </row>
+    <row r="2" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A2" s="40"/>
+      <c r="B2" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="U2" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+    <row r="3" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -7150,21 +5352,21 @@
       <c r="S3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-    </row>
-    <row r="4" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A4" s="40"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="6" t="s">
         <v>62</v>
       </c>
@@ -7207,22 +5409,22 @@
       <c r="T4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="U4" s="23"/>
+      <c r="U4" s="38"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="21"/>
+    <row r="5" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="36"/>
       <c r="G5" s="6" t="s">
         <v>63</v>
       </c>
@@ -7265,20 +5467,20 @@
       <c r="T5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="23"/>
+      <c r="U5" s="38"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
+    <row r="6" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="6" t="s">
         <v>64</v>
       </c>
@@ -7321,20 +5523,20 @@
       <c r="T6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="24"/>
+      <c r="U6" s="39"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="6" t="s">
         <v>69</v>
       </c>
@@ -7377,20 +5579,20 @@
       <c r="T7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="U7" s="24"/>
+      <c r="U7" s="39"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="6" t="s">
         <v>70</v>
       </c>
@@ -7433,20 +5635,20 @@
       <c r="T8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="24"/>
+      <c r="U8" s="39"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="20" t="s">
+    <row r="9" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="6" t="s">
         <v>71</v>
       </c>
@@ -7468,7 +5670,7 @@
       <c r="M9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="42">
         <v>43800</v>
       </c>
       <c r="O9" s="10" t="s">
@@ -7489,22 +5691,22 @@
       <c r="T9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="24"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" s="20" t="s">
+    <row r="10" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="F10" s="21"/>
+      <c r="D10" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="36"/>
       <c r="G10" s="6" t="s">
         <v>73</v>
       </c>
@@ -7526,7 +5728,7 @@
       <c r="M10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="42">
         <v>43794</v>
       </c>
       <c r="O10" s="10" t="s">
@@ -7547,22 +5749,22 @@
       <c r="T10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="24"/>
+      <c r="U10" s="39"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="20" t="s">
+    <row r="11" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="F11" s="21"/>
+      <c r="D11" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="6" t="s">
         <v>72</v>
       </c>
@@ -7584,7 +5786,7 @@
       <c r="M11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="42">
         <v>43800</v>
       </c>
       <c r="O11" s="10" t="s">
@@ -7605,20 +5807,20 @@
       <c r="T11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="24"/>
+      <c r="U11" s="39"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="20" t="s">
+    <row r="12" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="6" t="s">
         <v>170</v>
       </c>
@@ -7640,7 +5842,7 @@
       <c r="M12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="42">
         <v>43800</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -7661,20 +5863,20 @@
       <c r="T12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="U12" s="24"/>
+      <c r="U12" s="39"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="20" t="s">
+    <row r="13" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="6" t="s">
         <v>171</v>
       </c>
@@ -7684,27 +5886,27 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="26"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="24"/>
+      <c r="U13" s="39"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="34.25" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="20" t="s">
+    <row r="14" spans="1:22" ht="34.15" customHeight="1">
+      <c r="A14" s="40"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="6" t="s">
         <v>74</v>
       </c>
@@ -7726,7 +5928,7 @@
       <c r="M14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="42">
         <v>43800</v>
       </c>
       <c r="O14" s="10" t="s">
@@ -7747,7 +5949,7 @@
       <c r="T14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="24"/>
+      <c r="U14" s="39"/>
       <c r="V14" s="3"/>
     </row>
   </sheetData>
@@ -7770,83 +5972,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.08203125" customWidth="1"/>
+    <col min="5" max="5" width="17.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="108.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.08203125" customWidth="1"/>
+    <col min="9" max="9" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
     <col min="17" max="17" width="107.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="18" max="18" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="48" t="s">
+    <row r="2" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B2" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="48" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="R2" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+    <row r="3" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="7" t="s">
         <v>107</v>
       </c>
@@ -7857,10 +6057,10 @@
         <v>114</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>95</v>
@@ -7874,22 +6074,22 @@
       <c r="P3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B4" s="36"/>
+      <c r="C4" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>113</v>
@@ -7921,21 +6121,21 @@
       <c r="Q4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="23"/>
+      <c r="R4" s="38"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="20" t="s">
+    <row r="5" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B5" s="36"/>
+      <c r="C5" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>113</v>
@@ -7967,21 +6167,21 @@
       <c r="Q5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="39"/>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>113</v>
@@ -8013,23 +6213,23 @@
       <c r="Q6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="21"/>
+      <c r="D7" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="36"/>
       <c r="G7" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>113</v>
@@ -8061,21 +6261,21 @@
       <c r="Q7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="24"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>113</v>
@@ -8107,21 +6307,21 @@
       <c r="Q8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>113</v>
@@ -8153,21 +6353,21 @@
       <c r="Q9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="24"/>
+      <c r="R9" s="39"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>113</v>
@@ -8199,21 +6399,21 @@
       <c r="Q10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="39"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>117</v>
@@ -8245,21 +6445,21 @@
       <c r="Q11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="39"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>117</v>
@@ -8291,23 +6491,23 @@
       <c r="Q12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="24"/>
+      <c r="R12" s="39"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="2:19" ht="34" customHeight="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="36"/>
       <c r="G13" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>117</v>
@@ -8339,21 +6539,21 @@
       <c r="Q13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="R13" s="24"/>
+      <c r="R13" s="39"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" ht="34" customHeight="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>117</v>
@@ -8385,21 +6585,21 @@
       <c r="Q14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="R14" s="24"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" ht="34" customHeight="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>117</v>
@@ -8431,21 +6631,21 @@
       <c r="Q15" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="R15" s="24"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B16" s="21"/>
-      <c r="C16" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21"/>
+    <row r="16" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>117</v>
@@ -8477,21 +6677,21 @@
       <c r="Q16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="24"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21"/>
+    <row r="17" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B17" s="36"/>
+      <c r="C17" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>126</v>
@@ -8506,7 +6706,7 @@
         <v>128</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>123</v>
@@ -8521,23 +6721,23 @@
         <v>17</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="R17" s="23"/>
+        <v>263</v>
+      </c>
+      <c r="R17" s="38"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B18" s="21"/>
-      <c r="C18" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="21"/>
+    <row r="18" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B18" s="36"/>
+      <c r="C18" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>126</v>
@@ -8552,7 +6752,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>123</v>
@@ -8569,21 +6769,21 @@
       <c r="Q18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="23"/>
+      <c r="R18" s="38"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B19" s="21"/>
-      <c r="C19" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21"/>
+    <row r="19" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B19" s="36"/>
+      <c r="C19" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>126</v>
@@ -8595,7 +6795,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>128</v>
@@ -8613,23 +6813,23 @@
         <v>17</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="R19" s="23"/>
+        <v>263</v>
+      </c>
+      <c r="R19" s="38"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21"/>
+    <row r="20" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B20" s="36"/>
+      <c r="C20" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>126</v>
@@ -8644,7 +6844,7 @@
         <v>129</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>123</v>
@@ -8659,23 +6859,23 @@
         <v>17</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="R20" s="23"/>
+        <v>278</v>
+      </c>
+      <c r="R20" s="38"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
+    <row r="21" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B21" s="36"/>
+      <c r="C21" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>136</v>
@@ -8690,7 +6890,7 @@
         <v>128</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>123</v>
@@ -8705,23 +6905,23 @@
         <v>17</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="R21" s="23"/>
+        <v>264</v>
+      </c>
+      <c r="R21" s="38"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B22" s="21"/>
-      <c r="C22" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21"/>
+    <row r="22" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B22" s="36"/>
+      <c r="C22" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>136</v>
@@ -8736,7 +6936,7 @@
         <v>128</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>123</v>
@@ -8753,21 +6953,21 @@
       <c r="Q22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="23"/>
+      <c r="R22" s="38"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B23" s="21"/>
-      <c r="C23" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21"/>
+    <row r="23" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B23" s="36"/>
+      <c r="C23" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>136</v>
@@ -8779,7 +6979,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>128</v>
@@ -8797,23 +6997,23 @@
         <v>17</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="R23" s="23"/>
+        <v>264</v>
+      </c>
+      <c r="R23" s="38"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="21"/>
+    <row r="24" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B24" s="36"/>
+      <c r="C24" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>127</v>
@@ -8828,7 +7028,7 @@
         <v>129</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>123</v>
@@ -8843,23 +7043,23 @@
         <v>17</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="R24" s="23"/>
+        <v>265</v>
+      </c>
+      <c r="R24" s="38"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B25" s="21"/>
-      <c r="C25" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="21"/>
+    <row r="25" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B25" s="36"/>
+      <c r="C25" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>106</v>
@@ -8874,7 +7074,7 @@
         <v>124</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>123</v>
@@ -8889,23 +7089,23 @@
         <v>17</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="R25" s="23"/>
+        <v>266</v>
+      </c>
+      <c r="R25" s="38"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B26" s="21"/>
-      <c r="C26" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="21"/>
+    <row r="26" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B26" s="36"/>
+      <c r="C26" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>106</v>
@@ -8937,21 +7137,21 @@
       <c r="Q26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="23"/>
+      <c r="R26" s="38"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B27" s="21"/>
-      <c r="C27" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21"/>
+    <row r="27" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B27" s="36"/>
+      <c r="C27" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>106</v>
@@ -8963,7 +7163,7 @@
         <v>17</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>124</v>
@@ -8981,23 +7181,23 @@
         <v>17</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="R27" s="23"/>
+        <v>266</v>
+      </c>
+      <c r="R27" s="38"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B28" s="21"/>
-      <c r="C28" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21"/>
+    <row r="28" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B28" s="36"/>
+      <c r="C28" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>106</v>
@@ -9012,7 +7212,7 @@
         <v>125</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>123</v>
@@ -9027,23 +7227,23 @@
         <v>17</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="R28" s="23"/>
+        <v>277</v>
+      </c>
+      <c r="R28" s="38"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B29" s="21"/>
-      <c r="C29" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
+    <row r="29" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B29" s="36"/>
+      <c r="C29" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>137</v>
@@ -9058,7 +7258,7 @@
         <v>131</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>123</v>
@@ -9073,23 +7273,23 @@
         <v>17</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="R29" s="23"/>
+        <v>267</v>
+      </c>
+      <c r="R29" s="38"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B30" s="21"/>
-      <c r="C30" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21"/>
+    <row r="30" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B30" s="36"/>
+      <c r="C30" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>137</v>
@@ -9121,21 +7321,21 @@
       <c r="Q30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="23"/>
+      <c r="R30" s="38"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B31" s="21"/>
-      <c r="C31" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="21"/>
+    <row r="31" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B31" s="36"/>
+      <c r="C31" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>137</v>
@@ -9147,7 +7347,7 @@
         <v>17</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>131</v>
@@ -9165,23 +7365,23 @@
         <v>17</v>
       </c>
       <c r="Q31" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="R31" s="23"/>
+        <v>267</v>
+      </c>
+      <c r="R31" s="38"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B32" s="21"/>
-      <c r="C32" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21"/>
+    <row r="32" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B32" s="36"/>
+      <c r="C32" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>130</v>
@@ -9196,7 +7396,7 @@
         <v>132</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>123</v>
@@ -9211,23 +7411,23 @@
         <v>17</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="R32" s="23"/>
+        <v>272</v>
+      </c>
+      <c r="R32" s="38"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B33" s="21"/>
-      <c r="C33" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21"/>
+    <row r="33" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B33" s="36"/>
+      <c r="C33" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>138</v>
@@ -9242,7 +7442,7 @@
         <v>131</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>123</v>
@@ -9257,23 +7457,23 @@
         <v>17</v>
       </c>
       <c r="Q33" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="R33" s="23"/>
+        <v>268</v>
+      </c>
+      <c r="R33" s="38"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B34" s="21"/>
-      <c r="C34" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="21"/>
+    <row r="34" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B34" s="36"/>
+      <c r="C34" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>138</v>
@@ -9305,21 +7505,21 @@
       <c r="Q34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="23"/>
+      <c r="R34" s="38"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B35" s="21"/>
-      <c r="C35" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21"/>
+    <row r="35" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B35" s="36"/>
+      <c r="C35" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>138</v>
@@ -9331,7 +7531,7 @@
         <v>17</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>131</v>
@@ -9349,23 +7549,23 @@
         <v>17</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="R35" s="23"/>
+        <v>268</v>
+      </c>
+      <c r="R35" s="38"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B36" s="21"/>
-      <c r="C36" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
+    <row r="36" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B36" s="36"/>
+      <c r="C36" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>133</v>
@@ -9380,7 +7580,7 @@
         <v>132</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>123</v>
@@ -9395,23 +7595,23 @@
         <v>17</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="R36" s="23"/>
+        <v>271</v>
+      </c>
+      <c r="R36" s="38"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B37" s="21"/>
-      <c r="C37" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
+    <row r="37" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B37" s="36"/>
+      <c r="C37" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>139</v>
@@ -9426,7 +7626,7 @@
         <v>131</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>123</v>
@@ -9441,23 +7641,23 @@
         <v>17</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="R37" s="23"/>
+        <v>269</v>
+      </c>
+      <c r="R37" s="38"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B38" s="21"/>
-      <c r="C38" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="21"/>
+    <row r="38" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B38" s="36"/>
+      <c r="C38" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>139</v>
@@ -9489,21 +7689,21 @@
       <c r="Q38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="23"/>
+      <c r="R38" s="38"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="21"/>
+    <row r="39" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B39" s="36"/>
+      <c r="C39" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>139</v>
@@ -9515,7 +7715,7 @@
         <v>17</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>131</v>
@@ -9533,23 +7733,23 @@
         <v>17</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="R39" s="23"/>
+        <v>269</v>
+      </c>
+      <c r="R39" s="38"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21"/>
+    <row r="40" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B40" s="36"/>
+      <c r="C40" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>134</v>
@@ -9564,7 +7764,7 @@
         <v>132</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>123</v>
@@ -9579,23 +7779,23 @@
         <v>17</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="R40" s="23"/>
+        <v>270</v>
+      </c>
+      <c r="R40" s="38"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B41" s="21"/>
-      <c r="C41" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
+    <row r="41" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B41" s="36"/>
+      <c r="C41" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>135</v>
@@ -9610,7 +7810,7 @@
         <v>131</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>123</v>
@@ -9625,23 +7825,23 @@
         <v>17</v>
       </c>
       <c r="Q41" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="R41" s="23"/>
+        <v>273</v>
+      </c>
+      <c r="R41" s="38"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="21"/>
+    <row r="42" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B42" s="36"/>
+      <c r="C42" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>135</v>
@@ -9673,21 +7873,21 @@
       <c r="Q42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="23"/>
+      <c r="R42" s="38"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B43" s="21"/>
-      <c r="C43" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="21"/>
+    <row r="43" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B43" s="36"/>
+      <c r="C43" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>135</v>
@@ -9699,7 +7899,7 @@
         <v>17</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>131</v>
@@ -9717,23 +7917,23 @@
         <v>17</v>
       </c>
       <c r="Q43" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="R43" s="23"/>
+        <v>273</v>
+      </c>
+      <c r="R43" s="38"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B44" s="21"/>
-      <c r="C44" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="21"/>
+    <row r="44" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B44" s="36"/>
+      <c r="C44" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>135</v>
@@ -9748,7 +7948,7 @@
         <v>132</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>123</v>
@@ -9763,23 +7963,23 @@
         <v>17</v>
       </c>
       <c r="Q44" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="R44" s="23"/>
+        <v>274</v>
+      </c>
+      <c r="R44" s="38"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B45" s="21"/>
-      <c r="C45" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="21"/>
+    <row r="45" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B45" s="36"/>
+      <c r="C45" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>142</v>
@@ -9794,7 +7994,7 @@
         <v>140</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>123</v>
@@ -9809,23 +8009,23 @@
         <v>17</v>
       </c>
       <c r="Q45" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="R45" s="23"/>
+        <v>275</v>
+      </c>
+      <c r="R45" s="38"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B46" s="21"/>
-      <c r="C46" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="21"/>
+    <row r="46" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B46" s="36"/>
+      <c r="C46" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>142</v>
@@ -9857,21 +8057,21 @@
       <c r="Q46" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="23"/>
+      <c r="R46" s="38"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B47" s="21"/>
-      <c r="C47" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="21"/>
+    <row r="47" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B47" s="36"/>
+      <c r="C47" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>142</v>
@@ -9883,7 +8083,7 @@
         <v>17</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>140</v>
@@ -9901,23 +8101,23 @@
         <v>17</v>
       </c>
       <c r="Q47" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="R47" s="23"/>
+        <v>275</v>
+      </c>
+      <c r="R47" s="38"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B48" s="21"/>
-      <c r="C48" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="21"/>
+    <row r="48" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B48" s="36"/>
+      <c r="C48" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>142</v>
@@ -9932,7 +8132,7 @@
         <v>141</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>123</v>
@@ -9947,25 +8147,25 @@
         <v>17</v>
       </c>
       <c r="Q48" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="R48" s="23"/>
+        <v>276</v>
+      </c>
+      <c r="R48" s="38"/>
       <c r="S48" s="3"/>
     </row>
     <row r="49" spans="2:19" ht="34" customHeight="1">
-      <c r="B49" s="21"/>
-      <c r="C49" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" s="21"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="36"/>
       <c r="G49" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>106</v>
@@ -9995,23 +8195,23 @@
         <v>18</v>
       </c>
       <c r="Q49" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="R49" s="24"/>
+        <v>262</v>
+      </c>
+      <c r="R49" s="39"/>
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="2:19" ht="34" customHeight="1">
-      <c r="B50" s="21"/>
-      <c r="C50" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="21"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>106</v>
@@ -10043,21 +8243,21 @@
       <c r="Q50" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="R50" s="24"/>
+      <c r="R50" s="39"/>
       <c r="S50" s="3"/>
     </row>
     <row r="51" spans="2:19" ht="34" customHeight="1">
-      <c r="B51" s="21"/>
-      <c r="C51" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="36"/>
       <c r="G51" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>106</v>
@@ -10089,7 +8289,7 @@
       <c r="Q51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="24"/>
+      <c r="R51" s="39"/>
       <c r="S51" s="3"/>
     </row>
   </sheetData>
